--- a/data/pca/factorExposure/factorExposure_2011-05-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-05-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
+  </si>
+  <si>
+    <t>factor12</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +744,66 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>0.01655320925269138</v>
+        <v>0.01467278515035113</v>
       </c>
       <c r="C2">
-        <v>0.006412611647144377</v>
+        <v>0.0001297108890548825</v>
       </c>
       <c r="D2">
-        <v>-0.05355363753972107</v>
+        <v>-0.007607145574164302</v>
       </c>
       <c r="E2">
-        <v>0.02178404284551144</v>
+        <v>-0.04265976775238208</v>
       </c>
       <c r="F2">
-        <v>-0.03471933012644592</v>
+        <v>-0.004056570836739624</v>
       </c>
       <c r="G2">
-        <v>-0.01621720301644529</v>
+        <v>0.01122180012968453</v>
       </c>
       <c r="H2">
-        <v>0.02497781446916822</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.03757620321498513</v>
+      </c>
+      <c r="I2">
+        <v>-0.01848191587091446</v>
+      </c>
+      <c r="J2">
+        <v>-0.006849137890010831</v>
+      </c>
+      <c r="K2">
+        <v>0.05205136888326035</v>
+      </c>
+      <c r="L2">
+        <v>0.02128086307256481</v>
+      </c>
+      <c r="M2">
+        <v>-0.006506369637688089</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +826,66 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>0.07941073369244156</v>
+        <v>0.1106590594305113</v>
       </c>
       <c r="C4">
-        <v>-0.05708125746553772</v>
+        <v>0.0798897542272759</v>
       </c>
       <c r="D4">
-        <v>-0.03300610598570863</v>
+        <v>-0.01747740033137202</v>
       </c>
       <c r="E4">
-        <v>0.0431533363836397</v>
+        <v>-0.05299912110613761</v>
       </c>
       <c r="F4">
-        <v>-0.01847774009778342</v>
+        <v>0.1437975063123021</v>
       </c>
       <c r="G4">
-        <v>-0.01418286356852657</v>
+        <v>-0.03529627485991012</v>
       </c>
       <c r="H4">
-        <v>0.005461311577512055</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.03698692917301846</v>
+      </c>
+      <c r="I4">
+        <v>0.03670162853751927</v>
+      </c>
+      <c r="J4">
+        <v>-0.03531736263347699</v>
+      </c>
+      <c r="K4">
+        <v>-0.1009288310862273</v>
+      </c>
+      <c r="L4">
+        <v>0.02818126681638487</v>
+      </c>
+      <c r="M4">
+        <v>0.05598788605883028</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +908,476 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>0.1279649965955527</v>
+        <v>0.1331249054388243</v>
       </c>
       <c r="C6">
-        <v>-0.03936169361570116</v>
+        <v>0.05107005542733732</v>
       </c>
       <c r="D6">
-        <v>-0.04081825238909149</v>
+        <v>0.0006609119382709594</v>
       </c>
       <c r="E6">
-        <v>0.05659349760825935</v>
+        <v>0.001605391553921538</v>
       </c>
       <c r="F6">
-        <v>0.1118115712527524</v>
+        <v>-0.01204913211075151</v>
       </c>
       <c r="G6">
-        <v>0.04871561656147735</v>
+        <v>-0.1105977914522752</v>
       </c>
       <c r="H6">
-        <v>-0.2593377622562005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.004536319159623806</v>
+      </c>
+      <c r="I6">
+        <v>0.3885544036230903</v>
+      </c>
+      <c r="J6">
+        <v>0.233778370644202</v>
+      </c>
+      <c r="K6">
+        <v>-0.1065057142930513</v>
+      </c>
+      <c r="L6">
+        <v>0.09481002349209519</v>
+      </c>
+      <c r="M6">
+        <v>-0.01801841432502288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>0.07196147049984818</v>
+        <v>0.07019663752975019</v>
       </c>
       <c r="C7">
-        <v>-0.05507084710901818</v>
+        <v>0.06490128709394781</v>
       </c>
       <c r="D7">
-        <v>-0.04590292256159688</v>
+        <v>-0.0131820364042077</v>
       </c>
       <c r="E7">
-        <v>0.04566535764630845</v>
+        <v>-0.05756269197508455</v>
       </c>
       <c r="F7">
-        <v>0.04950859004980478</v>
+        <v>0.02135334356785479</v>
       </c>
       <c r="G7">
-        <v>-0.004478960493760699</v>
+        <v>-0.01478673414691311</v>
       </c>
       <c r="H7">
-        <v>0.02775485038826681</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>-0.01981881571053568</v>
+      </c>
+      <c r="I7">
+        <v>-0.04565628965864368</v>
+      </c>
+      <c r="J7">
+        <v>-0.078477204424572</v>
+      </c>
+      <c r="K7">
+        <v>-0.06426471827683179</v>
+      </c>
+      <c r="L7">
+        <v>0.02136655490391405</v>
+      </c>
+      <c r="M7">
+        <v>-0.05022462527834492</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>0.0321873999419809</v>
+        <v>0.04200003393305966</v>
       </c>
       <c r="C8">
-        <v>-0.01973434971471395</v>
+        <v>0.01817170226728559</v>
       </c>
       <c r="D8">
-        <v>-0.05955628048311557</v>
+        <v>-0.007174698791135587</v>
       </c>
       <c r="E8">
-        <v>0.04905029567618278</v>
+        <v>-0.03852615628678048</v>
       </c>
       <c r="F8">
-        <v>-0.01461545386738622</v>
+        <v>0.123938275750793</v>
       </c>
       <c r="G8">
-        <v>-0.05003273565034239</v>
+        <v>-0.01783405001275683</v>
       </c>
       <c r="H8">
-        <v>-0.004239378606595345</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.02997588999852061</v>
+      </c>
+      <c r="I8">
+        <v>0.0515260881138525</v>
+      </c>
+      <c r="J8">
+        <v>-0.04818765062852686</v>
+      </c>
+      <c r="K8">
+        <v>-0.06936111624895136</v>
+      </c>
+      <c r="L8">
+        <v>0.06911550589696268</v>
+      </c>
+      <c r="M8">
+        <v>0.07360663867554783</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>0.07744198932902834</v>
+        <v>0.08467787526198056</v>
       </c>
       <c r="C9">
-        <v>-0.06392949661123111</v>
+        <v>0.07052566049767182</v>
       </c>
       <c r="D9">
-        <v>-0.03504385167984084</v>
+        <v>0.001204997209623271</v>
       </c>
       <c r="E9">
-        <v>0.04100328998478601</v>
+        <v>-0.03551448655183416</v>
       </c>
       <c r="F9">
-        <v>-0.02466145644463529</v>
+        <v>0.1321605100395435</v>
       </c>
       <c r="G9">
-        <v>-0.01569273669999158</v>
+        <v>-0.03830902131373436</v>
       </c>
       <c r="H9">
-        <v>0.002594626947170936</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.009450041090400818</v>
+      </c>
+      <c r="I9">
+        <v>0.009660338393093859</v>
+      </c>
+      <c r="J9">
+        <v>-0.03358302762451709</v>
+      </c>
+      <c r="K9">
+        <v>-0.0574690827886354</v>
+      </c>
+      <c r="L9">
+        <v>0.03164215315606238</v>
+      </c>
+      <c r="M9">
+        <v>-0.01185958276620069</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>0.06093667865065634</v>
+        <v>0.1116507655753282</v>
       </c>
       <c r="C10">
-        <v>0.1378792935312961</v>
+        <v>-0.1643518286845436</v>
       </c>
       <c r="D10">
-        <v>-0.07867390607365939</v>
+        <v>-0.01121400394220696</v>
       </c>
       <c r="E10">
-        <v>0.04437650256994614</v>
+        <v>-0.04282245700457486</v>
       </c>
       <c r="F10">
-        <v>0.03985804147096533</v>
+        <v>-0.02053261692459616</v>
       </c>
       <c r="G10">
-        <v>-0.001940308715862138</v>
+        <v>-0.02861073857090939</v>
       </c>
       <c r="H10">
-        <v>-0.01828073721051781</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>-0.01720876380020208</v>
+      </c>
+      <c r="I10">
+        <v>-0.02553831431511221</v>
+      </c>
+      <c r="J10">
+        <v>0.02159082507160177</v>
+      </c>
+      <c r="K10">
+        <v>0.02262160566838469</v>
+      </c>
+      <c r="L10">
+        <v>-0.03369317605511185</v>
+      </c>
+      <c r="M10">
+        <v>-0.1180628301421889</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>0.07133469582649829</v>
+        <v>0.06818974018066759</v>
       </c>
       <c r="C11">
-        <v>-0.08217994438414576</v>
+        <v>0.07466785665356271</v>
       </c>
       <c r="D11">
-        <v>-0.0188715226568665</v>
+        <v>0.02799522552075268</v>
       </c>
       <c r="E11">
-        <v>-1.264807705883836e-05</v>
+        <v>-0.01383306024910639</v>
       </c>
       <c r="F11">
-        <v>-0.04306856078320941</v>
+        <v>0.1121524490727729</v>
       </c>
       <c r="G11">
-        <v>-0.0799770954032136</v>
+        <v>-0.02141898616937105</v>
       </c>
       <c r="H11">
-        <v>0.04860037430775833</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>-0.04606801363593534</v>
+      </c>
+      <c r="I11">
+        <v>-0.06408335958473006</v>
+      </c>
+      <c r="J11">
+        <v>-0.04659606951434567</v>
+      </c>
+      <c r="K11">
+        <v>0.06013587730150581</v>
+      </c>
+      <c r="L11">
+        <v>0.03426633193217667</v>
+      </c>
+      <c r="M11">
+        <v>-0.129527087170519</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>0.06985190296611811</v>
+        <v>0.06874179553243753</v>
       </c>
       <c r="C12">
-        <v>-0.05602718894457044</v>
+        <v>0.0663023816154884</v>
       </c>
       <c r="D12">
-        <v>-0.01059619456339168</v>
+        <v>0.02784357208210996</v>
       </c>
       <c r="E12">
-        <v>0.02911116841572581</v>
+        <v>-0.005285989665969424</v>
       </c>
       <c r="F12">
-        <v>0.005117627928770413</v>
+        <v>0.1176918954198741</v>
       </c>
       <c r="G12">
-        <v>-0.06002635648498852</v>
+        <v>-0.01933461332095732</v>
       </c>
       <c r="H12">
-        <v>0.05331633960613125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>-0.04297554015635109</v>
+      </c>
+      <c r="I12">
+        <v>-0.03173298956531716</v>
+      </c>
+      <c r="J12">
+        <v>-0.0744263096652108</v>
+      </c>
+      <c r="K12">
+        <v>0.04270029320588849</v>
+      </c>
+      <c r="L12">
+        <v>0.04662178099693264</v>
+      </c>
+      <c r="M12">
+        <v>-0.1509683859233741</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>0.06138906692062261</v>
+        <v>0.04551458279736325</v>
       </c>
       <c r="C13">
-        <v>-0.01172266875860882</v>
+        <v>0.03349432168348485</v>
       </c>
       <c r="D13">
-        <v>0.004250226682436116</v>
+        <v>-0.02237891316397417</v>
       </c>
       <c r="E13">
-        <v>0.02679015126216095</v>
+        <v>-0.009031719479552641</v>
       </c>
       <c r="F13">
-        <v>-0.05089900012485667</v>
+        <v>0.04835370802628986</v>
       </c>
       <c r="G13">
-        <v>-0.001093199698739837</v>
+        <v>-0.002247786258328528</v>
       </c>
       <c r="H13">
-        <v>-0.007669794106522886</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0.01946989394346585</v>
+      </c>
+      <c r="I13">
+        <v>0.004579387094679904</v>
+      </c>
+      <c r="J13">
+        <v>-0.02211935808729831</v>
+      </c>
+      <c r="K13">
+        <v>-0.03606200065318663</v>
+      </c>
+      <c r="L13">
+        <v>-0.01319286656626949</v>
+      </c>
+      <c r="M13">
+        <v>0.03229483861616602</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>0.04876469260142478</v>
+        <v>0.03988300559062907</v>
       </c>
       <c r="C14">
-        <v>-0.02325429555994364</v>
+        <v>0.02917364621458363</v>
       </c>
       <c r="D14">
-        <v>-0.02646758650655107</v>
+        <v>0.01344794871642316</v>
       </c>
       <c r="E14">
-        <v>0.02192808753688607</v>
+        <v>-0.01950368203721536</v>
       </c>
       <c r="F14">
-        <v>0.02218300596475386</v>
+        <v>0.06386016494577558</v>
       </c>
       <c r="G14">
-        <v>0.002352120048298133</v>
+        <v>-0.0001693907708528608</v>
       </c>
       <c r="H14">
-        <v>-0.07064140831587208</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0.03373056099505625</v>
+      </c>
+      <c r="I14">
+        <v>-0.0007225853096672762</v>
+      </c>
+      <c r="J14">
+        <v>0.0006153575348605058</v>
+      </c>
+      <c r="K14">
+        <v>-0.1047446571960761</v>
+      </c>
+      <c r="L14">
+        <v>0.01719657780847122</v>
+      </c>
+      <c r="M14">
+        <v>-0.0006693501046450319</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>0.03693319866304728</v>
+        <v>0.02554135945594629</v>
       </c>
       <c r="C15">
-        <v>0.004913781600405865</v>
+        <v>0.01017256611981955</v>
       </c>
       <c r="D15">
-        <v>0.004475117015484675</v>
+        <v>-0.05531842513096175</v>
       </c>
       <c r="E15">
-        <v>0.02052805011720492</v>
+        <v>-0.004315642739481819</v>
       </c>
       <c r="F15">
-        <v>-0.004971017822299235</v>
+        <v>-0.001313789090237492</v>
       </c>
       <c r="G15">
-        <v>0.01286057243341453</v>
+        <v>-0.03869698949218811</v>
       </c>
       <c r="H15">
-        <v>-0.01321560788285378</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>0.01815223907889541</v>
+      </c>
+      <c r="I15">
+        <v>0.0005992431672716855</v>
+      </c>
+      <c r="J15">
+        <v>0.005482158559022185</v>
+      </c>
+      <c r="K15">
+        <v>-0.08262499490163464</v>
+      </c>
+      <c r="L15">
+        <v>-0.007034141434288641</v>
+      </c>
+      <c r="M15">
+        <v>-0.01680125537778184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>0.06341268034538831</v>
+        <v>0.07190527905620087</v>
       </c>
       <c r="C16">
-        <v>-0.0823849556751593</v>
+        <v>0.08094952526419098</v>
       </c>
       <c r="D16">
-        <v>-0.02015655016971311</v>
+        <v>0.01791055943850218</v>
       </c>
       <c r="E16">
-        <v>0.03160769749525408</v>
+        <v>-0.01271954674787539</v>
       </c>
       <c r="F16">
-        <v>-0.03851641831020415</v>
+        <v>0.1144210965063869</v>
       </c>
       <c r="G16">
-        <v>-0.05629000161800118</v>
+        <v>-0.01128803450881803</v>
       </c>
       <c r="H16">
-        <v>0.04145262568724489</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>-0.03127817055284968</v>
+      </c>
+      <c r="I16">
+        <v>-0.04592702944568004</v>
+      </c>
+      <c r="J16">
+        <v>-0.0666429546059602</v>
+      </c>
+      <c r="K16">
+        <v>0.04147370238203126</v>
+      </c>
+      <c r="L16">
+        <v>0.05473818314557391</v>
+      </c>
+      <c r="M16">
+        <v>-0.131009774849887</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1400,25 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1441,25 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1482,312 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>0.04489914181544342</v>
+        <v>0.0465802916520487</v>
       </c>
       <c r="C20">
-        <v>-0.04677481236267077</v>
+        <v>0.03205280907286021</v>
       </c>
       <c r="D20">
-        <v>-0.01151688550984538</v>
+        <v>-0.02487489470069541</v>
       </c>
       <c r="E20">
-        <v>0.01843438491270363</v>
+        <v>-0.02306755479905657</v>
       </c>
       <c r="F20">
-        <v>-0.01977521164897559</v>
+        <v>0.06815900798192305</v>
       </c>
       <c r="G20">
-        <v>-0.02172401687237331</v>
+        <v>0.01202270138247941</v>
       </c>
       <c r="H20">
-        <v>0.006965664511035308</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>-0.01555894290170217</v>
+      </c>
+      <c r="I20">
+        <v>0.007178401222952139</v>
+      </c>
+      <c r="J20">
+        <v>-0.02640161804743081</v>
+      </c>
+      <c r="K20">
+        <v>-0.06521277857108912</v>
+      </c>
+      <c r="L20">
+        <v>0.04072228664246164</v>
+      </c>
+      <c r="M20">
+        <v>-0.02753059790463227</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>0.02171749652213014</v>
+        <v>0.02344622230981503</v>
       </c>
       <c r="C21">
-        <v>-0.03608316950699327</v>
+        <v>0.02367262095786312</v>
       </c>
       <c r="D21">
-        <v>0.0007536716783691679</v>
+        <v>-0.007772048466456487</v>
       </c>
       <c r="E21">
-        <v>0.05603551340171996</v>
+        <v>-0.03104123616210205</v>
       </c>
       <c r="F21">
-        <v>0.07253899603110639</v>
+        <v>0.0533426332623754</v>
       </c>
       <c r="G21">
-        <v>0.001058326309852794</v>
+        <v>-0.08247355010287524</v>
       </c>
       <c r="H21">
-        <v>-0.01344395843276107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>-0.1008208042044276</v>
+      </c>
+      <c r="I21">
+        <v>-0.0110066126217028</v>
+      </c>
+      <c r="J21">
+        <v>-0.01773893782433953</v>
+      </c>
+      <c r="K21">
+        <v>-0.09132343681465407</v>
+      </c>
+      <c r="L21">
+        <v>-0.02706891634249792</v>
+      </c>
+      <c r="M21">
+        <v>-0.04083425856041387</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>0.01070072996417462</v>
+        <v>0.04260708428739929</v>
       </c>
       <c r="C22">
-        <v>-0.03691217698380876</v>
+        <v>0.0242642354937845</v>
       </c>
       <c r="D22">
-        <v>0.07650367429885838</v>
+        <v>-0.6540844642108041</v>
       </c>
       <c r="E22">
-        <v>0.5249025299169456</v>
+        <v>-0.04979990367033024</v>
       </c>
       <c r="F22">
-        <v>-0.1317552108819478</v>
+        <v>-0.04752030979641095</v>
       </c>
       <c r="G22">
-        <v>0.2346217153164239</v>
+        <v>0.1414701913395759</v>
       </c>
       <c r="H22">
-        <v>0.2022693710433197</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>-0.1110442342648999</v>
+      </c>
+      <c r="I22">
+        <v>0.002066461279666244</v>
+      </c>
+      <c r="J22">
+        <v>0.007909485260439752</v>
+      </c>
+      <c r="K22">
+        <v>0.02822642999475788</v>
+      </c>
+      <c r="L22">
+        <v>-0.006936952192682879</v>
+      </c>
+      <c r="M22">
+        <v>0.006491889781900516</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>0.009506206776205832</v>
+        <v>0.04283207414890661</v>
       </c>
       <c r="C23">
-        <v>-0.03566088427692377</v>
+        <v>0.02446841829169927</v>
       </c>
       <c r="D23">
-        <v>0.07596301597201212</v>
+        <v>-0.6555777893023897</v>
       </c>
       <c r="E23">
-        <v>0.5236882636395929</v>
+        <v>-0.05029300256188095</v>
       </c>
       <c r="F23">
-        <v>-0.130748938253073</v>
+        <v>-0.04469017430979878</v>
       </c>
       <c r="G23">
-        <v>0.2354974582971713</v>
+        <v>0.1417161392450536</v>
       </c>
       <c r="H23">
-        <v>0.1995990045409479</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>-0.1090156945697539</v>
+      </c>
+      <c r="I23">
+        <v>0.005042297222452755</v>
+      </c>
+      <c r="J23">
+        <v>0.009970093608328724</v>
+      </c>
+      <c r="K23">
+        <v>0.02982087581304253</v>
+      </c>
+      <c r="L23">
+        <v>-0.005060220066532187</v>
+      </c>
+      <c r="M23">
+        <v>0.00620370930689642</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>0.07706195444011933</v>
+        <v>0.07589497965156075</v>
       </c>
       <c r="C24">
-        <v>-0.07238261951705742</v>
+        <v>0.07738724022528976</v>
       </c>
       <c r="D24">
-        <v>-0.02138975404549224</v>
+        <v>0.0128432834271681</v>
       </c>
       <c r="E24">
-        <v>0.03405958198577675</v>
+        <v>-0.01728959657680885</v>
       </c>
       <c r="F24">
-        <v>-0.02111201016799652</v>
+        <v>0.112107797612823</v>
       </c>
       <c r="G24">
-        <v>-0.06074195159621965</v>
+        <v>-0.01916689516539005</v>
       </c>
       <c r="H24">
-        <v>0.03218528282901469</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>-0.03793650350865992</v>
+      </c>
+      <c r="I24">
+        <v>-0.04266544231615396</v>
+      </c>
+      <c r="J24">
+        <v>-0.04586817886898506</v>
+      </c>
+      <c r="K24">
+        <v>0.05541001300914194</v>
+      </c>
+      <c r="L24">
+        <v>0.04453253552956676</v>
+      </c>
+      <c r="M24">
+        <v>-0.1150294563655871</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>0.06895035513688455</v>
+        <v>0.07304035712196219</v>
       </c>
       <c r="C25">
-        <v>-0.0420017202254822</v>
+        <v>0.05364315181148697</v>
       </c>
       <c r="D25">
-        <v>-0.02354695026042574</v>
+        <v>0.03135660604448077</v>
       </c>
       <c r="E25">
-        <v>0.04138202846109285</v>
+        <v>-0.01373691123189564</v>
       </c>
       <c r="F25">
-        <v>-0.03552534084786575</v>
+        <v>0.12152913481255</v>
       </c>
       <c r="G25">
-        <v>-0.06760937462266428</v>
+        <v>-0.008511432365682728</v>
       </c>
       <c r="H25">
-        <v>-0.0008500662084419454</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>-0.02701527514904028</v>
+      </c>
+      <c r="I25">
+        <v>-0.04470483954993732</v>
+      </c>
+      <c r="J25">
+        <v>-0.03716176041675891</v>
+      </c>
+      <c r="K25">
+        <v>0.06521529105663754</v>
+      </c>
+      <c r="L25">
+        <v>0.06496544967526252</v>
+      </c>
+      <c r="M25">
+        <v>-0.1210057073396262</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>0.04549673334688468</v>
+        <v>0.04428862118583947</v>
       </c>
       <c r="C26">
-        <v>-0.04325405536606525</v>
+        <v>0.01917556734551731</v>
       </c>
       <c r="D26">
-        <v>-0.04121790313350485</v>
+        <v>-0.01235775270556801</v>
       </c>
       <c r="E26">
-        <v>0.00354790698448088</v>
+        <v>-0.005996750866748795</v>
       </c>
       <c r="F26">
-        <v>-0.006832483105863954</v>
+        <v>0.04292469800661</v>
       </c>
       <c r="G26">
-        <v>0.01974983426062953</v>
+        <v>0.008403059904644166</v>
       </c>
       <c r="H26">
-        <v>0.005964869799829243</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>-0.01467982512214508</v>
+      </c>
+      <c r="I26">
+        <v>-0.01640372051943985</v>
+      </c>
+      <c r="J26">
+        <v>-0.02075006779881406</v>
+      </c>
+      <c r="K26">
+        <v>-0.1277500733474428</v>
+      </c>
+      <c r="L26">
+        <v>-0.03545014857571497</v>
+      </c>
+      <c r="M26">
+        <v>-0.04895061767839796</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1810,394 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>0.1063177139806519</v>
+        <v>0.1464553161241658</v>
       </c>
       <c r="C28">
-        <v>0.2903737729057959</v>
+        <v>-0.284167439798475</v>
       </c>
       <c r="D28">
-        <v>-0.06188437525760176</v>
+        <v>0.008806349605044492</v>
       </c>
       <c r="E28">
-        <v>0.0007700247502953501</v>
+        <v>-0.02191276290895452</v>
       </c>
       <c r="F28">
-        <v>0.05071157383182878</v>
+        <v>0.003813849289446931</v>
       </c>
       <c r="G28">
-        <v>-0.004258684246773202</v>
+        <v>-0.008158173108508105</v>
       </c>
       <c r="H28">
-        <v>0.0557974686922293</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>-0.01658372049866885</v>
+      </c>
+      <c r="I28">
+        <v>0.01673753381906102</v>
+      </c>
+      <c r="J28">
+        <v>-0.02552387108708612</v>
+      </c>
+      <c r="K28">
+        <v>-0.01200429533714891</v>
+      </c>
+      <c r="L28">
+        <v>-0.01691470834908571</v>
+      </c>
+      <c r="M28">
+        <v>0.01232232752640204</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>0.05145840256311576</v>
+        <v>0.04094092015409288</v>
       </c>
       <c r="C29">
-        <v>-0.02335513379250483</v>
+        <v>0.02872159288494462</v>
       </c>
       <c r="D29">
-        <v>-0.01494389316125264</v>
+        <v>0.004386491963129067</v>
       </c>
       <c r="E29">
-        <v>0.02813943949256107</v>
+        <v>-0.02610667771252873</v>
       </c>
       <c r="F29">
-        <v>-0.002719697280824418</v>
+        <v>0.06163871330821744</v>
       </c>
       <c r="G29">
-        <v>0.01231093102722013</v>
+        <v>0.01114442121950333</v>
       </c>
       <c r="H29">
-        <v>-0.007915249306062116</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>0.01154510777120223</v>
+      </c>
+      <c r="I29">
+        <v>0.007372929771825885</v>
+      </c>
+      <c r="J29">
+        <v>-0.006491362933087161</v>
+      </c>
+      <c r="K29">
+        <v>-0.09052596063287252</v>
+      </c>
+      <c r="L29">
+        <v>0.01625036768655783</v>
+      </c>
+      <c r="M29">
+        <v>-0.01366999418350007</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>0.1275572306174186</v>
+        <v>0.1052270552696048</v>
       </c>
       <c r="C30">
-        <v>-0.05554729230189048</v>
+        <v>0.05892895992429349</v>
       </c>
       <c r="D30">
-        <v>-0.05125609140921867</v>
+        <v>0.00597148991488131</v>
       </c>
       <c r="E30">
-        <v>0.1205509221178388</v>
+        <v>-0.0511489216561317</v>
       </c>
       <c r="F30">
-        <v>0.01753397790591607</v>
+        <v>0.2322315745227514</v>
       </c>
       <c r="G30">
-        <v>-0.1725754151358528</v>
+        <v>0.1078936081442021</v>
       </c>
       <c r="H30">
-        <v>0.006493300686853446</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>-0.2365425697231705</v>
+      </c>
+      <c r="I30">
+        <v>0.125787223283499</v>
+      </c>
+      <c r="J30">
+        <v>-0.1244224373790516</v>
+      </c>
+      <c r="K30">
+        <v>-0.1605676786848803</v>
+      </c>
+      <c r="L30">
+        <v>0.02940703549643318</v>
+      </c>
+      <c r="M30">
+        <v>0.4324177868816405</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>0.0503026930479668</v>
+        <v>0.03796865737315712</v>
       </c>
       <c r="C31">
-        <v>-0.02610902180350514</v>
+        <v>0.05067664184414274</v>
       </c>
       <c r="D31">
-        <v>0.008693227159038162</v>
+        <v>-0.004390543704531145</v>
       </c>
       <c r="E31">
-        <v>0.00138329572853869</v>
+        <v>0.00962698295095204</v>
       </c>
       <c r="F31">
-        <v>-0.008956606014080822</v>
+        <v>0.02888664489849299</v>
       </c>
       <c r="G31">
-        <v>0.03603366820775021</v>
+        <v>0.01106543336572764</v>
       </c>
       <c r="H31">
-        <v>-0.0004787152291825588</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>0.04513592684946217</v>
+      </c>
+      <c r="I31">
+        <v>-0.002426371445687336</v>
+      </c>
+      <c r="J31">
+        <v>0.002243526130924382</v>
+      </c>
+      <c r="K31">
+        <v>-0.02849845825397276</v>
+      </c>
+      <c r="L31">
+        <v>0.02956545954796012</v>
+      </c>
+      <c r="M31">
+        <v>0.0001072385410841144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>0.01533242325205798</v>
+        <v>0.04375173136245118</v>
       </c>
       <c r="C32">
-        <v>0.0191400661295398</v>
+        <v>-0.003925981130651</v>
       </c>
       <c r="D32">
-        <v>0.005466791730595601</v>
+        <v>0.01466998122449457</v>
       </c>
       <c r="E32">
-        <v>0.07899745305264169</v>
+        <v>0.001661114085064959</v>
       </c>
       <c r="F32">
-        <v>-0.08098258405837425</v>
+        <v>0.08254289556281556</v>
       </c>
       <c r="G32">
-        <v>-0.02850145112985455</v>
+        <v>-0.03331998598688724</v>
       </c>
       <c r="H32">
-        <v>0.0504005824709445</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>0.0366808398709853</v>
+      </c>
+      <c r="I32">
+        <v>-0.06968368450449679</v>
+      </c>
+      <c r="J32">
+        <v>-0.02915661476851126</v>
+      </c>
+      <c r="K32">
+        <v>-0.04113768789890517</v>
+      </c>
+      <c r="L32">
+        <v>0.01281912861058905</v>
+      </c>
+      <c r="M32">
+        <v>0.1520557829835771</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>0.1045605544495057</v>
+        <v>0.09911816795529449</v>
       </c>
       <c r="C33">
-        <v>-0.04482142018798536</v>
+        <v>0.06898430897077006</v>
       </c>
       <c r="D33">
-        <v>-0.003215171173728471</v>
+        <v>0.01375089640275449</v>
       </c>
       <c r="E33">
-        <v>0.01982671105655949</v>
+        <v>0.01274281218017018</v>
       </c>
       <c r="F33">
-        <v>-0.05195970797756417</v>
+        <v>0.08283196576140157</v>
       </c>
       <c r="G33">
-        <v>-0.02025535029669933</v>
+        <v>0.01961676543865115</v>
       </c>
       <c r="H33">
-        <v>-0.001703761341914958</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>-0.003986230092184652</v>
+      </c>
+      <c r="I33">
+        <v>-0.009297704355615848</v>
+      </c>
+      <c r="J33">
+        <v>0.02102695205867418</v>
+      </c>
+      <c r="K33">
+        <v>-0.04520183685624626</v>
+      </c>
+      <c r="L33">
+        <v>0.003809413693466576</v>
+      </c>
+      <c r="M33">
+        <v>-0.0008056853879946512</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>0.05530662095422714</v>
+        <v>0.06349602814481163</v>
       </c>
       <c r="C34">
-        <v>-0.07490929944398522</v>
+        <v>0.06613164116698957</v>
       </c>
       <c r="D34">
-        <v>-0.009196633098646569</v>
+        <v>0.02153537481679696</v>
       </c>
       <c r="E34">
-        <v>0.01918145577445914</v>
+        <v>-0.009931806547390863</v>
       </c>
       <c r="F34">
-        <v>-0.02424248366321935</v>
+        <v>0.105512212109838</v>
       </c>
       <c r="G34">
-        <v>-0.04306929928940578</v>
+        <v>-0.01840491822139779</v>
       </c>
       <c r="H34">
-        <v>0.02898019311966452</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>-0.0172147824117434</v>
+      </c>
+      <c r="I34">
+        <v>-0.05350205069958748</v>
+      </c>
+      <c r="J34">
+        <v>-0.06187204729998574</v>
+      </c>
+      <c r="K34">
+        <v>0.01986837461081032</v>
+      </c>
+      <c r="L34">
+        <v>0.05018952605947186</v>
+      </c>
+      <c r="M34">
+        <v>-0.1302041212099991</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>0.04471613569409572</v>
+        <v>0.02507228650462042</v>
       </c>
       <c r="C35">
-        <v>-0.04489312726104405</v>
+        <v>0.0246765448475949</v>
       </c>
       <c r="D35">
-        <v>0.004282669945744268</v>
+        <v>-0.0002349219999432694</v>
       </c>
       <c r="E35">
-        <v>0.01430074283286605</v>
+        <v>-0.0002062379052101188</v>
       </c>
       <c r="F35">
-        <v>0.007814974598139823</v>
+        <v>0.03518902349575381</v>
       </c>
       <c r="G35">
-        <v>-0.009192687178141217</v>
+        <v>0.005104211131689042</v>
       </c>
       <c r="H35">
-        <v>0.002373435267406297</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>-0.01798230992420078</v>
+      </c>
+      <c r="I35">
+        <v>-0.03156920435419595</v>
+      </c>
+      <c r="J35">
+        <v>-0.05667145419454389</v>
+      </c>
+      <c r="K35">
+        <v>-0.05195325351826293</v>
+      </c>
+      <c r="L35">
+        <v>0.0313019235020106</v>
+      </c>
+      <c r="M35">
+        <v>-0.01217710751150448</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>0.03465637557419052</v>
+        <v>0.02821864908872636</v>
       </c>
       <c r="C36">
-        <v>-0.02363892745903358</v>
+        <v>0.01886520208342281</v>
       </c>
       <c r="D36">
-        <v>-0.02630563717651432</v>
+        <v>-0.0133450137046364</v>
       </c>
       <c r="E36">
-        <v>0.03941562468935657</v>
+        <v>-0.01616581645236785</v>
       </c>
       <c r="F36">
-        <v>-0.02545472049352567</v>
+        <v>0.0639369659423413</v>
       </c>
       <c r="G36">
-        <v>-0.009700925830429171</v>
+        <v>0.0004958995690556137</v>
       </c>
       <c r="H36">
-        <v>-0.02715449042720861</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>-0.00925097876888473</v>
+      </c>
+      <c r="I36">
+        <v>0.01616298537613338</v>
+      </c>
+      <c r="J36">
+        <v>0.00885608321873892</v>
+      </c>
+      <c r="K36">
+        <v>-0.04786122760537979</v>
+      </c>
+      <c r="L36">
+        <v>0.006308035063329495</v>
+      </c>
+      <c r="M36">
+        <v>-0.06334458162091654</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +2220,189 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>0.04938306534161079</v>
+        <v>0.0285007175549262</v>
       </c>
       <c r="C38">
-        <v>-0.04149341855694342</v>
+        <v>0.04826751214096328</v>
       </c>
       <c r="D38">
-        <v>0.0004236309367038834</v>
+        <v>-0.02218725617810232</v>
       </c>
       <c r="E38">
-        <v>0.04168406944931355</v>
+        <v>-0.009803152050786749</v>
       </c>
       <c r="F38">
-        <v>-0.0605042529058823</v>
+        <v>-0.04196092083241366</v>
       </c>
       <c r="G38">
-        <v>-0.01893252990421847</v>
+        <v>0.06255215150951755</v>
       </c>
       <c r="H38">
-        <v>0.01952568214830797</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>-0.006941627768607381</v>
+      </c>
+      <c r="I38">
+        <v>-0.01611695646281777</v>
+      </c>
+      <c r="J38">
+        <v>-0.007428465789056108</v>
+      </c>
+      <c r="K38">
+        <v>-0.0629764282295804</v>
+      </c>
+      <c r="L38">
+        <v>-0.1015103862732982</v>
+      </c>
+      <c r="M38">
+        <v>0.09122574076663116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>0.09879795091182153</v>
+        <v>0.1033957040324011</v>
       </c>
       <c r="C39">
-        <v>-0.0884395925749431</v>
+        <v>0.09368716782819599</v>
       </c>
       <c r="D39">
-        <v>0.002106971961484835</v>
+        <v>0.08425691729856939</v>
       </c>
       <c r="E39">
-        <v>0.03286151039549347</v>
+        <v>0.02536630668937767</v>
       </c>
       <c r="F39">
-        <v>-0.01711735854813789</v>
+        <v>0.175529432483972</v>
       </c>
       <c r="G39">
-        <v>-0.1055815375963229</v>
+        <v>0.0739172914801301</v>
       </c>
       <c r="H39">
-        <v>0.09834835454439179</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>-0.09044708756897515</v>
+      </c>
+      <c r="I39">
+        <v>-0.04106376719086678</v>
+      </c>
+      <c r="J39">
+        <v>-0.1468930833321507</v>
+      </c>
+      <c r="K39">
+        <v>0.1200616475055747</v>
+      </c>
+      <c r="L39">
+        <v>0.1020015774374856</v>
+      </c>
+      <c r="M39">
+        <v>0.02343159201113029</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>0.04426116674363396</v>
+        <v>0.03188031235903069</v>
       </c>
       <c r="C40">
-        <v>-0.03038300899448441</v>
+        <v>0.05775639557576778</v>
       </c>
       <c r="D40">
-        <v>0.0559239184543634</v>
+        <v>-0.04403477377419539</v>
       </c>
       <c r="E40">
-        <v>0.1224481758117414</v>
+        <v>-0.01369060445692485</v>
       </c>
       <c r="F40">
-        <v>-0.06849580684166241</v>
+        <v>0.1101044923150219</v>
       </c>
       <c r="G40">
-        <v>-0.1153890878154446</v>
+        <v>-0.05622701261952491</v>
       </c>
       <c r="H40">
-        <v>0.06474269568635972</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>-0.07967127883787899</v>
+      </c>
+      <c r="I40">
+        <v>-0.04034630142728349</v>
+      </c>
+      <c r="J40">
+        <v>0.004485741422601231</v>
+      </c>
+      <c r="K40">
+        <v>-0.06610199207776163</v>
+      </c>
+      <c r="L40">
+        <v>-0.1291953362870388</v>
+      </c>
+      <c r="M40">
+        <v>0.0690005018545669</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>0.04565977213948036</v>
+        <v>0.04011119970362223</v>
       </c>
       <c r="C41">
-        <v>-0.04759767403622182</v>
+        <v>0.03914605210255737</v>
       </c>
       <c r="D41">
-        <v>-0.003730342506023211</v>
+        <v>0.0149428120538493</v>
       </c>
       <c r="E41">
-        <v>7.632488303947181e-05</v>
+        <v>0.00105024924129274</v>
       </c>
       <c r="F41">
-        <v>-0.03088873746216455</v>
+        <v>0.02684448759107323</v>
       </c>
       <c r="G41">
-        <v>-0.01520136116963188</v>
+        <v>0.01861350927451962</v>
       </c>
       <c r="H41">
-        <v>0.02183623000028464</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>0.003905224261256052</v>
+      </c>
+      <c r="I41">
+        <v>-0.02256377702381458</v>
+      </c>
+      <c r="J41">
+        <v>-0.0371422251538517</v>
+      </c>
+      <c r="K41">
+        <v>-0.03995938360982484</v>
+      </c>
+      <c r="L41">
+        <v>-0.008912517412652411</v>
+      </c>
+      <c r="M41">
+        <v>-0.02561217671795628</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2425,107 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>0.06107306907311209</v>
+        <v>0.05057548262042157</v>
       </c>
       <c r="C43">
-        <v>-0.03874706268451063</v>
+        <v>0.04498539665217995</v>
       </c>
       <c r="D43">
-        <v>-0.02444072488702482</v>
+        <v>-0.01140922158299288</v>
       </c>
       <c r="E43">
-        <v>0.03064910091293452</v>
+        <v>-0.01308393572814893</v>
       </c>
       <c r="F43">
-        <v>-0.01471299902726282</v>
+        <v>0.01882098758208129</v>
       </c>
       <c r="G43">
-        <v>0.001226772758947595</v>
+        <v>0.04332753738879751</v>
       </c>
       <c r="H43">
-        <v>0.01734412922122081</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>0.008506075828377823</v>
+      </c>
+      <c r="I43">
+        <v>0.005066188634907703</v>
+      </c>
+      <c r="J43">
+        <v>-0.05131429181077292</v>
+      </c>
+      <c r="K43">
+        <v>-0.01798523359671549</v>
+      </c>
+      <c r="L43">
+        <v>0.007402894028954119</v>
+      </c>
+      <c r="M43">
+        <v>-0.03535218209902272</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>0.04600390603833417</v>
+        <v>0.08414608404740545</v>
       </c>
       <c r="C44">
-        <v>-0.01508469782896781</v>
+        <v>0.05942471263053425</v>
       </c>
       <c r="D44">
-        <v>-0.07718072773914846</v>
+        <v>-0.0795860469458648</v>
       </c>
       <c r="E44">
-        <v>0.09390475939619834</v>
+        <v>-0.1071848011351202</v>
       </c>
       <c r="F44">
-        <v>-0.03598586655074005</v>
+        <v>0.1697793648781331</v>
       </c>
       <c r="G44">
-        <v>-0.1231941930869304</v>
+        <v>-0.01636838506754815</v>
       </c>
       <c r="H44">
-        <v>-0.007445602030421118</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>-0.02499065771090422</v>
+      </c>
+      <c r="I44">
+        <v>-0.06694138596079893</v>
+      </c>
+      <c r="J44">
+        <v>0.001229493095255512</v>
+      </c>
+      <c r="K44">
+        <v>0.0190735407854879</v>
+      </c>
+      <c r="L44">
+        <v>-0.01821292998600554</v>
+      </c>
+      <c r="M44">
+        <v>0.08167415943996457</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2548,476 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>0.02670659232840352</v>
+        <v>0.03422260930973369</v>
       </c>
       <c r="C46">
-        <v>-0.0512368773151049</v>
+        <v>0.04086167404505719</v>
       </c>
       <c r="D46">
-        <v>-0.01564692099788536</v>
+        <v>-0.03949604173160028</v>
       </c>
       <c r="E46">
-        <v>0.04018079466938422</v>
+        <v>-0.04358468904947318</v>
       </c>
       <c r="F46">
-        <v>-0.007226400239224459</v>
+        <v>0.04313517803226422</v>
       </c>
       <c r="G46">
-        <v>-0.001459119807639111</v>
+        <v>-0.009529624097420548</v>
       </c>
       <c r="H46">
-        <v>0.0006092802753863756</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>-0.0009093784663750887</v>
+      </c>
+      <c r="I46">
+        <v>-0.03527754545491262</v>
+      </c>
+      <c r="J46">
+        <v>0.006169283717075765</v>
+      </c>
+      <c r="K46">
+        <v>-0.1199802869629779</v>
+      </c>
+      <c r="L46">
+        <v>0.02800245023601887</v>
+      </c>
+      <c r="M46">
+        <v>-0.02666545120577695</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>0.02429581094235333</v>
+        <v>0.04068213541951766</v>
       </c>
       <c r="C47">
-        <v>-0.006565311736228135</v>
+        <v>0.0275922098329032</v>
       </c>
       <c r="D47">
-        <v>0.001401576757142692</v>
+        <v>-0.01793741125854947</v>
       </c>
       <c r="E47">
-        <v>0.06670303436148171</v>
+        <v>-0.01423482297820524</v>
       </c>
       <c r="F47">
-        <v>-0.02166283891385632</v>
+        <v>0.04111384214325685</v>
       </c>
       <c r="G47">
-        <v>0.005085394036140323</v>
+        <v>0.002740649405356497</v>
       </c>
       <c r="H47">
-        <v>-0.0442413419334229</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>0.01005597095114916</v>
+      </c>
+      <c r="I47">
+        <v>0.01816008653696624</v>
+      </c>
+      <c r="J47">
+        <v>0.008484582839438363</v>
+      </c>
+      <c r="K47">
+        <v>-0.0453809581062284</v>
+      </c>
+      <c r="L47">
+        <v>-0.007100019382381673</v>
+      </c>
+      <c r="M47">
+        <v>-0.05925644412661634</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>0.03510734847763268</v>
+        <v>0.04268551400647035</v>
       </c>
       <c r="C48">
-        <v>-0.02488572108851627</v>
+        <v>0.02177115664723708</v>
       </c>
       <c r="D48">
-        <v>0.00273442554730733</v>
+        <v>-0.01083504295835359</v>
       </c>
       <c r="E48">
-        <v>0.05329536704435078</v>
+        <v>-0.004916890698814915</v>
       </c>
       <c r="F48">
-        <v>-0.01905904286259674</v>
+        <v>0.06860735898495542</v>
       </c>
       <c r="G48">
-        <v>0.01896570843751032</v>
+        <v>-0.03284844353697674</v>
       </c>
       <c r="H48">
-        <v>0.005576747937285586</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>-0.02472261341640522</v>
+      </c>
+      <c r="I48">
+        <v>0.007757697061011331</v>
+      </c>
+      <c r="J48">
+        <v>-0.005801559295735313</v>
+      </c>
+      <c r="K48">
+        <v>-0.04656241845523481</v>
+      </c>
+      <c r="L48">
+        <v>0.03862692513400089</v>
+      </c>
+      <c r="M48">
+        <v>-0.052288250409761</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>0.215487885176113</v>
+        <v>0.2259039912301228</v>
       </c>
       <c r="C49">
-        <v>-0.1238356957874969</v>
+        <v>0.08026337685205072</v>
       </c>
       <c r="D49">
-        <v>-0.04766875360475251</v>
+        <v>0.05012272346757624</v>
       </c>
       <c r="E49">
-        <v>-0.04937775728105895</v>
+        <v>-0.02624045517776202</v>
       </c>
       <c r="F49">
-        <v>0.1739060572742354</v>
+        <v>-0.2457803797432741</v>
       </c>
       <c r="G49">
-        <v>-0.05010769423017387</v>
+        <v>-0.05879907726436166</v>
       </c>
       <c r="H49">
-        <v>0.0460492728647337</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>-0.1800341403658921</v>
+      </c>
+      <c r="I49">
+        <v>-0.07218000796804851</v>
+      </c>
+      <c r="J49">
+        <v>0.02199895208191018</v>
+      </c>
+      <c r="K49">
+        <v>0.1546269427520427</v>
+      </c>
+      <c r="L49">
+        <v>0.03868216987041648</v>
+      </c>
+      <c r="M49">
+        <v>-0.04588174390195871</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>0.05455039128919303</v>
+        <v>0.04656101826686826</v>
       </c>
       <c r="C50">
-        <v>-0.02712862861114122</v>
+        <v>0.04037939731233937</v>
       </c>
       <c r="D50">
-        <v>0.001746573063826661</v>
+        <v>-0.001337826236131265</v>
       </c>
       <c r="E50">
-        <v>0.02774145207807647</v>
+        <v>0.01000379177228425</v>
       </c>
       <c r="F50">
-        <v>-0.04308515417169077</v>
+        <v>0.05350926587855268</v>
       </c>
       <c r="G50">
-        <v>0.04394841429501709</v>
+        <v>0.02800022327865429</v>
       </c>
       <c r="H50">
-        <v>-0.03467231027588434</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>0.02909130632145487</v>
+      </c>
+      <c r="I50">
+        <v>0.01084018151853893</v>
+      </c>
+      <c r="J50">
+        <v>0.01833404752544739</v>
+      </c>
+      <c r="K50">
+        <v>-0.05544481785090077</v>
+      </c>
+      <c r="L50">
+        <v>0.02114514095413901</v>
+      </c>
+      <c r="M50">
+        <v>0.008427992943936298</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>0.02975140591793488</v>
+        <v>0.02652102760225179</v>
       </c>
       <c r="C51">
-        <v>-0.01671867059418343</v>
+        <v>0.005962026596436605</v>
       </c>
       <c r="D51">
-        <v>-0.005465846356668686</v>
+        <v>0.001065643938946006</v>
       </c>
       <c r="E51">
-        <v>0.001796004623273396</v>
+        <v>-0.01645226460473012</v>
       </c>
       <c r="F51">
-        <v>-0.0149863166614561</v>
+        <v>-0.02388392640750965</v>
       </c>
       <c r="G51">
-        <v>-0.006169611794285012</v>
+        <v>0.004356112407982351</v>
       </c>
       <c r="H51">
-        <v>0.02139776589081972</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>0.004435542860775404</v>
+      </c>
+      <c r="I51">
+        <v>-0.01095687344991095</v>
+      </c>
+      <c r="J51">
+        <v>-0.02229044979039796</v>
+      </c>
+      <c r="K51">
+        <v>0.07298018376070876</v>
+      </c>
+      <c r="L51">
+        <v>0.03604079063231438</v>
+      </c>
+      <c r="M51">
+        <v>0.006718259939513182</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.03791506996344129</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.01153929940385272</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.01720225687099382</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>-0.004523676556190847</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.02745909250778461</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>0.05245800397151552</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>0.01037069533857002</v>
+      </c>
+      <c r="I52">
+        <v>-0.004032699926486743</v>
+      </c>
+      <c r="J52">
+        <v>0.03397274772900108</v>
+      </c>
+      <c r="K52">
+        <v>0.01239038796472058</v>
+      </c>
+      <c r="L52">
+        <v>0.01988514638929793</v>
+      </c>
+      <c r="M52">
+        <v>0.05057081544452891</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>0.1689052955567811</v>
+        <v>0.1607003517097093</v>
       </c>
       <c r="C53">
-        <v>-0.006036584077630971</v>
+        <v>0.04692616386886774</v>
       </c>
       <c r="D53">
-        <v>-0.02750879003102175</v>
+        <v>0.01479202449766936</v>
       </c>
       <c r="E53">
-        <v>-0.07810725276160145</v>
+        <v>0.001805438179686964</v>
       </c>
       <c r="F53">
-        <v>-0.2439629418199805</v>
+        <v>-0.04145448500159753</v>
       </c>
       <c r="G53">
-        <v>0.04885167838003356</v>
+        <v>0.2029194645916967</v>
       </c>
       <c r="H53">
-        <v>-0.07004880995222103</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>0.1800010922120575</v>
+      </c>
+      <c r="I53">
+        <v>-0.05083812294495324</v>
+      </c>
+      <c r="J53">
+        <v>0.1191658654341089</v>
+      </c>
+      <c r="K53">
+        <v>-0.01984264958485731</v>
+      </c>
+      <c r="L53">
+        <v>-0.01391493923944369</v>
+      </c>
+      <c r="M53">
+        <v>0.08047501602488191</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>0.05008407581251313</v>
+        <v>0.05491277184406686</v>
       </c>
       <c r="C54">
-        <v>-0.03587039078346266</v>
+        <v>0.04295612738356344</v>
       </c>
       <c r="D54">
-        <v>-0.02890890048706936</v>
+        <v>-0.01680446503565504</v>
       </c>
       <c r="E54">
-        <v>0.05395424815193406</v>
+        <v>-0.02748272636345668</v>
       </c>
       <c r="F54">
-        <v>-0.01465523462234514</v>
+        <v>0.1184688102555637</v>
       </c>
       <c r="G54">
-        <v>-0.006507204927157461</v>
+        <v>-0.05923650120802909</v>
       </c>
       <c r="H54">
-        <v>-0.005348634177247109</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>0.0360016495748257</v>
+      </c>
+      <c r="I54">
+        <v>0.027597634962768</v>
+      </c>
+      <c r="J54">
+        <v>-0.03683524904488158</v>
+      </c>
+      <c r="K54">
+        <v>-0.1404559344210246</v>
+      </c>
+      <c r="L54">
+        <v>0.007321564624929198</v>
+      </c>
+      <c r="M54">
+        <v>-0.04746962968528452</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>0.09029753758293101</v>
+        <v>0.08466555430152858</v>
       </c>
       <c r="C55">
-        <v>-0.004896203709678744</v>
+        <v>0.03693551577476536</v>
       </c>
       <c r="D55">
-        <v>-0.01967308770673702</v>
+        <v>0.02851695801743511</v>
       </c>
       <c r="E55">
-        <v>-0.01474655520369615</v>
+        <v>-0.01040848628386332</v>
       </c>
       <c r="F55">
-        <v>-0.1961030875141487</v>
+        <v>0.01533409667294528</v>
       </c>
       <c r="G55">
-        <v>0.04831988445285095</v>
+        <v>0.1041220859759383</v>
       </c>
       <c r="H55">
-        <v>-0.07902567247734016</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>0.1367463590580656</v>
+      </c>
+      <c r="I55">
+        <v>-0.03989278735385947</v>
+      </c>
+      <c r="J55">
+        <v>0.06920416508576721</v>
+      </c>
+      <c r="K55">
+        <v>-0.01007539035139845</v>
+      </c>
+      <c r="L55">
+        <v>-0.003045934049162301</v>
+      </c>
+      <c r="M55">
+        <v>-0.02522206530859088</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>0.1623405692657146</v>
+        <v>0.1511491216191545</v>
       </c>
       <c r="C56">
-        <v>-0.008157503838576635</v>
+        <v>0.06722908720696907</v>
       </c>
       <c r="D56">
-        <v>-0.03011339994315894</v>
+        <v>0.0333724717022959</v>
       </c>
       <c r="E56">
-        <v>-0.08124388731913079</v>
+        <v>-0.0187450663129501</v>
       </c>
       <c r="F56">
-        <v>-0.21444923587385</v>
+        <v>-0.02137780423639541</v>
       </c>
       <c r="G56">
-        <v>0.09032534398145051</v>
+        <v>0.1844318557035305</v>
       </c>
       <c r="H56">
-        <v>-0.05097887164121893</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>0.168372131561579</v>
+      </c>
+      <c r="I56">
+        <v>-0.05233495055282867</v>
+      </c>
+      <c r="J56">
+        <v>0.09568415758433754</v>
+      </c>
+      <c r="K56">
+        <v>-0.008751948653292185</v>
+      </c>
+      <c r="L56">
+        <v>-0.0594634128135386</v>
+      </c>
+      <c r="M56">
+        <v>0.02510257028777393</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,1154 +3040,1829 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>0.02188202175257343</v>
+        <v>0.03814332078942833</v>
       </c>
       <c r="C58">
-        <v>-0.04594460632214544</v>
+        <v>0.03331071407901846</v>
       </c>
       <c r="D58">
-        <v>0.04490238304565496</v>
+        <v>-0.08194187215460064</v>
       </c>
       <c r="E58">
-        <v>0.3751963189045396</v>
+        <v>-0.007753468564117375</v>
       </c>
       <c r="F58">
-        <v>0.3607735552797274</v>
+        <v>0.05777291971043796</v>
       </c>
       <c r="G58">
-        <v>0.08926844878868506</v>
+        <v>-0.01847147813025916</v>
       </c>
       <c r="H58">
-        <v>-0.2353811689208613</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>-0.1262685977784375</v>
+      </c>
+      <c r="I58">
+        <v>0.04611306460685578</v>
+      </c>
+      <c r="J58">
+        <v>-0.1566302532672256</v>
+      </c>
+      <c r="K58">
+        <v>0.03632158257347144</v>
+      </c>
+      <c r="L58">
+        <v>0.4480372937324019</v>
+      </c>
+      <c r="M58">
+        <v>-0.05212843907044937</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>0.2213044103355738</v>
+        <v>0.2280887181858759</v>
       </c>
       <c r="C59">
-        <v>0.3977388088024125</v>
+        <v>-0.2942702419201262</v>
       </c>
       <c r="D59">
-        <v>-0.07258904267332594</v>
+        <v>0.04205679073114511</v>
       </c>
       <c r="E59">
-        <v>-0.001975950059597417</v>
+        <v>-0.007824890104073785</v>
       </c>
       <c r="F59">
-        <v>-0.05399953344248896</v>
+        <v>0.02006942522967026</v>
       </c>
       <c r="G59">
-        <v>-0.04660721372176151</v>
+        <v>0.01746891934778655</v>
       </c>
       <c r="H59">
-        <v>0.05144700263041374</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>0.1132517014353685</v>
+      </c>
+      <c r="I59">
+        <v>-0.03614333172681393</v>
+      </c>
+      <c r="J59">
+        <v>-0.01872352300308925</v>
+      </c>
+      <c r="K59">
+        <v>0.1030484663253292</v>
+      </c>
+      <c r="L59">
+        <v>-0.06580977993854699</v>
+      </c>
+      <c r="M59">
+        <v>0.05551696397844697</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>0.2542743295090021</v>
+        <v>0.2397717562605066</v>
       </c>
       <c r="C60">
-        <v>-0.07390294212132156</v>
+        <v>0.123766722881262</v>
       </c>
       <c r="D60">
-        <v>-0.07890716348411504</v>
+        <v>0.0625333195582848</v>
       </c>
       <c r="E60">
-        <v>-0.004469244235544873</v>
+        <v>-0.04412250733432918</v>
       </c>
       <c r="F60">
-        <v>0.03346693006194398</v>
+        <v>-0.1224230699618804</v>
       </c>
       <c r="G60">
-        <v>0.01874916180798304</v>
+        <v>0.00394636135692539</v>
       </c>
       <c r="H60">
-        <v>-0.04689131186481539</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>-0.08448197434172654</v>
+      </c>
+      <c r="I60">
+        <v>0.1132389678858727</v>
+      </c>
+      <c r="J60">
+        <v>0.1814781159404867</v>
+      </c>
+      <c r="K60">
+        <v>0.1637144597789554</v>
+      </c>
+      <c r="L60">
+        <v>0.01319996598225914</v>
+      </c>
+      <c r="M60">
+        <v>0.07902168574317187</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>0.08584860714852541</v>
+        <v>0.1023587184650178</v>
       </c>
       <c r="C61">
-        <v>-0.04853575088516614</v>
+        <v>0.06531013436764543</v>
       </c>
       <c r="D61">
-        <v>-0.00437650640413865</v>
+        <v>0.04666506305741012</v>
       </c>
       <c r="E61">
-        <v>0.001712435324547985</v>
+        <v>-0.01417415873820731</v>
       </c>
       <c r="F61">
-        <v>-0.0211289940973534</v>
+        <v>0.1458919967522319</v>
       </c>
       <c r="G61">
-        <v>-0.03033030096383221</v>
+        <v>0.0697177370571801</v>
       </c>
       <c r="H61">
-        <v>0.06259544185656792</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>-0.03080153632997496</v>
+      </c>
+      <c r="I61">
+        <v>-0.05540574921152766</v>
+      </c>
+      <c r="J61">
+        <v>-0.09080159124431782</v>
+      </c>
+      <c r="K61">
+        <v>0.01992853755244207</v>
+      </c>
+      <c r="L61">
+        <v>0.04734981314317166</v>
+      </c>
+      <c r="M61">
+        <v>-0.005152262506382837</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>0.1568463835317906</v>
+        <v>0.1425415631495343</v>
       </c>
       <c r="C62">
-        <v>-0.03842506481548366</v>
+        <v>0.06999429953534556</v>
       </c>
       <c r="D62">
-        <v>0.01162743557189696</v>
+        <v>0.03193044426884092</v>
       </c>
       <c r="E62">
-        <v>-0.1440627843820569</v>
+        <v>0.02751727978946481</v>
       </c>
       <c r="F62">
-        <v>-0.2168490156002148</v>
+        <v>-0.03632163172541724</v>
       </c>
       <c r="G62">
-        <v>0.02857708681850992</v>
+        <v>0.138689745563564</v>
       </c>
       <c r="H62">
-        <v>-0.01716465179632437</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>0.1523537459019135</v>
+      </c>
+      <c r="I62">
+        <v>-0.0696978414506646</v>
+      </c>
+      <c r="J62">
+        <v>0.1315098770893853</v>
+      </c>
+      <c r="K62">
+        <v>-0.06542331450410377</v>
+      </c>
+      <c r="L62">
+        <v>-0.07341572562297971</v>
+      </c>
+      <c r="M62">
+        <v>-0.05001121774170161</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B63">
-        <v>0.03691386491446848</v>
+        <v>0.04604381631567959</v>
       </c>
       <c r="C63">
-        <v>-0.03826811862462944</v>
+        <v>0.03031808029380531</v>
       </c>
       <c r="D63">
-        <v>-0.00161609264306727</v>
+        <v>0.003048781897366749</v>
       </c>
       <c r="E63">
-        <v>0.002409819131520586</v>
+        <v>0.01397220607150688</v>
       </c>
       <c r="F63">
-        <v>-0.01657174323608704</v>
+        <v>0.07256157418066207</v>
       </c>
       <c r="G63">
-        <v>-0.007232466639473984</v>
+        <v>-0.0091814694017217</v>
       </c>
       <c r="H63">
-        <v>-0.04214499488768295</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>-0.01091771631142463</v>
+      </c>
+      <c r="I63">
+        <v>-0.002787687403907304</v>
+      </c>
+      <c r="J63">
+        <v>-0.01608476440195976</v>
+      </c>
+      <c r="K63">
+        <v>-0.03989902754359427</v>
+      </c>
+      <c r="L63">
+        <v>0.04100911089376671</v>
+      </c>
+      <c r="M63">
+        <v>-0.03938323023728185</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>0.1061828827548006</v>
+        <v>0.09916888304568643</v>
       </c>
       <c r="C64">
-        <v>-0.03177758159369429</v>
+        <v>0.04622656099027884</v>
       </c>
       <c r="D64">
-        <v>-0.03955252422146711</v>
+        <v>-0.005973952253774711</v>
       </c>
       <c r="E64">
-        <v>0.04435227922598158</v>
+        <v>-0.04266754171559192</v>
       </c>
       <c r="F64">
-        <v>0.00524508004626844</v>
+        <v>0.07580805036272088</v>
       </c>
       <c r="G64">
-        <v>-0.05904555606913341</v>
+        <v>0.01610780373439217</v>
       </c>
       <c r="H64">
-        <v>0.0347157318384354</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>-0.08408063739472205</v>
+      </c>
+      <c r="I64">
+        <v>0.03229319242170219</v>
+      </c>
+      <c r="J64">
+        <v>-0.03917384466604514</v>
+      </c>
+      <c r="K64">
+        <v>-0.00316350814580631</v>
+      </c>
+      <c r="L64">
+        <v>-0.003312924751815277</v>
+      </c>
+      <c r="M64">
+        <v>0.03628548069607625</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>0.1264215011002943</v>
+        <v>0.1249247587447587</v>
       </c>
       <c r="C65">
-        <v>-0.05492575991365256</v>
+        <v>0.05008204173305299</v>
       </c>
       <c r="D65">
-        <v>-0.02846134551975146</v>
+        <v>0.01554951997814533</v>
       </c>
       <c r="E65">
-        <v>0.08704425205127904</v>
+        <v>0.02826285014575061</v>
       </c>
       <c r="F65">
-        <v>0.166467455961556</v>
+        <v>-0.01619646602874078</v>
       </c>
       <c r="G65">
-        <v>0.1076363431885876</v>
+        <v>-0.1031417158631932</v>
       </c>
       <c r="H65">
-        <v>-0.6267664898551066</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>-0.0527164654748789</v>
+      </c>
+      <c r="I65">
+        <v>0.5360814272294318</v>
+      </c>
+      <c r="J65">
+        <v>0.4027632230526612</v>
+      </c>
+      <c r="K65">
+        <v>-0.1677151865955676</v>
+      </c>
+      <c r="L65">
+        <v>0.1991521365948709</v>
+      </c>
+      <c r="M65">
+        <v>0.04037887797855839</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>0.1568548208576857</v>
+        <v>0.1336404253794455</v>
       </c>
       <c r="C66">
-        <v>-0.1139797660070673</v>
+        <v>0.1286911656533131</v>
       </c>
       <c r="D66">
-        <v>0.007272879249651647</v>
+        <v>0.09877973340488086</v>
       </c>
       <c r="E66">
-        <v>-0.007008550585653191</v>
+        <v>0.03885263057262322</v>
       </c>
       <c r="F66">
-        <v>-0.04734411487553013</v>
+        <v>0.183582614690382</v>
       </c>
       <c r="G66">
-        <v>-0.2029601063371452</v>
+        <v>0.09703332380038208</v>
       </c>
       <c r="H66">
-        <v>0.1991025596405615</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>-0.113616727521832</v>
+      </c>
+      <c r="I66">
+        <v>-0.09053685476031478</v>
+      </c>
+      <c r="J66">
+        <v>-0.1180932257109385</v>
+      </c>
+      <c r="K66">
+        <v>0.158412388869279</v>
+      </c>
+      <c r="L66">
+        <v>0.02880078613149503</v>
+      </c>
+      <c r="M66">
+        <v>0.1198859497529974</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>0.08735391828488157</v>
+        <v>0.07524673166838744</v>
       </c>
       <c r="C67">
-        <v>-0.05721701907436383</v>
+        <v>0.05826662698338218</v>
       </c>
       <c r="D67">
-        <v>-0.02342351685722242</v>
+        <v>-0.01982490641514839</v>
       </c>
       <c r="E67">
-        <v>0.009278887369973562</v>
+        <v>-0.02597617052628742</v>
       </c>
       <c r="F67">
-        <v>-0.04405089828573402</v>
+        <v>-0.04914548111186168</v>
       </c>
       <c r="G67">
-        <v>-0.02006874864882423</v>
+        <v>0.07655225790079909</v>
       </c>
       <c r="H67">
-        <v>0.04050098374384472</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>0.01482915907207517</v>
+      </c>
+      <c r="I67">
+        <v>-0.003583872241353974</v>
+      </c>
+      <c r="J67">
+        <v>-0.03470434019079485</v>
+      </c>
+      <c r="K67">
+        <v>0.009856778578980247</v>
+      </c>
+      <c r="L67">
+        <v>-0.1516440877038907</v>
+      </c>
+      <c r="M67">
+        <v>0.0678533240468488</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>0.09233674347764359</v>
+        <v>0.1243591661157767</v>
       </c>
       <c r="C68">
-        <v>0.2825600756047411</v>
+        <v>-0.2701180675461777</v>
       </c>
       <c r="D68">
-        <v>-0.01999697161548939</v>
+        <v>0.007623778832176701</v>
       </c>
       <c r="E68">
-        <v>0.02767643841826218</v>
+        <v>0.003433818829953366</v>
       </c>
       <c r="F68">
-        <v>-0.02092109272250913</v>
+        <v>0.04228777023286848</v>
       </c>
       <c r="G68">
-        <v>0.04162986331697765</v>
+        <v>0.0237885313027259</v>
       </c>
       <c r="H68">
-        <v>-0.02614059008210101</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>0.005790394201084557</v>
+      </c>
+      <c r="I68">
+        <v>0.03497175057101976</v>
+      </c>
+      <c r="J68">
+        <v>0.02335689468348566</v>
+      </c>
+      <c r="K68">
+        <v>-0.03119692980068186</v>
+      </c>
+      <c r="L68">
+        <v>0.04698370826726584</v>
+      </c>
+      <c r="M68">
+        <v>0.002762685722084004</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>0.03277097604084975</v>
+        <v>0.04482882180667615</v>
       </c>
       <c r="C69">
-        <v>-0.02560584844168728</v>
+        <v>0.02001544074329814</v>
       </c>
       <c r="D69">
-        <v>-0.006727589316925384</v>
+        <v>-0.005080607503760113</v>
       </c>
       <c r="E69">
-        <v>0.006257017692655445</v>
+        <v>-0.004681631924304502</v>
       </c>
       <c r="F69">
-        <v>-0.02838412205735175</v>
+        <v>0.02347099734440463</v>
       </c>
       <c r="G69">
-        <v>-0.03565591290565285</v>
+        <v>0.02668413575678165</v>
       </c>
       <c r="H69">
-        <v>-0.0116452158773946</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>0.001042509141321475</v>
+      </c>
+      <c r="I69">
+        <v>0.002045016942765945</v>
+      </c>
+      <c r="J69">
+        <v>-0.01038926925955206</v>
+      </c>
+      <c r="K69">
+        <v>-0.01590311489424481</v>
+      </c>
+      <c r="L69">
+        <v>-0.0143825041605027</v>
+      </c>
+      <c r="M69">
+        <v>-0.06425369768720292</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>0.05763102393109847</v>
+        <v>0.05329811661853703</v>
       </c>
       <c r="C70">
-        <v>-0.008303868348373543</v>
+        <v>0.02702233514884953</v>
       </c>
       <c r="D70">
-        <v>-0.03592290119330155</v>
+        <v>0.02789453786301454</v>
       </c>
       <c r="E70">
-        <v>-0.007511540175663705</v>
+        <v>-0.03672371468937628</v>
       </c>
       <c r="F70">
-        <v>0.1022035956258045</v>
+        <v>0.01480863981747519</v>
       </c>
       <c r="G70">
-        <v>0.02649853930010439</v>
+        <v>-0.05465992512325028</v>
       </c>
       <c r="H70">
-        <v>0.04558782844363841</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>-0.02278608730151758</v>
+      </c>
+      <c r="I70">
+        <v>0.04538317973012758</v>
+      </c>
+      <c r="J70">
+        <v>-0.1194619696641727</v>
+      </c>
+      <c r="K70">
+        <v>-0.3073986393351951</v>
+      </c>
+      <c r="L70">
+        <v>-0.1958015663847214</v>
+      </c>
+      <c r="M70">
+        <v>0.04248198475226105</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B71">
-        <v>0.09822443833197751</v>
+        <v>0.1388816322803396</v>
       </c>
       <c r="C71">
-        <v>0.2763083419940696</v>
+        <v>-0.2798474574357503</v>
       </c>
       <c r="D71">
-        <v>-0.05203436356142651</v>
+        <v>0.01242912849398888</v>
       </c>
       <c r="E71">
-        <v>0.01355821537211035</v>
+        <v>-0.0154111182002969</v>
       </c>
       <c r="F71">
-        <v>0.008881245705217524</v>
+        <v>0.03951244502288265</v>
       </c>
       <c r="G71">
-        <v>0.01608451292889678</v>
+        <v>0.02895999180482935</v>
       </c>
       <c r="H71">
-        <v>-0.0005711794965934953</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>-0.01825321796224451</v>
+      </c>
+      <c r="I71">
+        <v>0.01547556253001729</v>
+      </c>
+      <c r="J71">
+        <v>0.004142911441954042</v>
+      </c>
+      <c r="K71">
+        <v>-0.005650138906841675</v>
+      </c>
+      <c r="L71">
+        <v>0.02526653773896184</v>
+      </c>
+      <c r="M71">
+        <v>-0.004770100810961696</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B72">
-        <v>0.1817577595068729</v>
+        <v>0.148417515501231</v>
       </c>
       <c r="C72">
-        <v>-0.01272945032878307</v>
+        <v>0.02687030470275543</v>
       </c>
       <c r="D72">
-        <v>0.2417784210209976</v>
+        <v>-0.0001377755432706201</v>
       </c>
       <c r="E72">
-        <v>-0.03882556134052495</v>
+        <v>0.1762650376896411</v>
       </c>
       <c r="F72">
-        <v>-0.07632720752170519</v>
+        <v>0.04093516060946021</v>
       </c>
       <c r="G72">
-        <v>-0.05902628481359647</v>
+        <v>0.05261627600788073</v>
       </c>
       <c r="H72">
-        <v>-0.1179791479852901</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>0.01940283200521613</v>
+      </c>
+      <c r="I72">
+        <v>0.06480321151671116</v>
+      </c>
+      <c r="J72">
+        <v>0.1327948963411224</v>
+      </c>
+      <c r="K72">
+        <v>0.02987778783863257</v>
+      </c>
+      <c r="L72">
+        <v>-0.0298379598826425</v>
+      </c>
+      <c r="M72">
+        <v>0.02873499860696042</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B73">
-        <v>0.2932134931457306</v>
+        <v>0.241780877780451</v>
       </c>
       <c r="C73">
-        <v>-0.1901509837134246</v>
+        <v>0.150130314704009</v>
       </c>
       <c r="D73">
-        <v>-0.1037660387846255</v>
+        <v>0.1394342304255084</v>
       </c>
       <c r="E73">
-        <v>-0.02735933917358616</v>
+        <v>-0.09451063471968833</v>
       </c>
       <c r="F73">
-        <v>0.1898531099245579</v>
+        <v>-0.4439718502284213</v>
       </c>
       <c r="G73">
-        <v>0.02301446697993044</v>
+        <v>0.03690992763194971</v>
       </c>
       <c r="H73">
-        <v>-0.1491570228930635</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>-0.3127703602941586</v>
+      </c>
+      <c r="I73">
+        <v>-0.02107825955764193</v>
+      </c>
+      <c r="J73">
+        <v>-0.04323223365943292</v>
+      </c>
+      <c r="K73">
+        <v>0.3241442899947868</v>
+      </c>
+      <c r="L73">
+        <v>0.1469985461791287</v>
+      </c>
+      <c r="M73">
+        <v>0.131162346397748</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B74">
-        <v>0.09273627952441384</v>
+        <v>0.09931266071079964</v>
       </c>
       <c r="C74">
-        <v>-0.03520606682912412</v>
+        <v>0.07055486421364146</v>
       </c>
       <c r="D74">
-        <v>-0.005363892872954366</v>
+        <v>0.0111971680541496</v>
       </c>
       <c r="E74">
-        <v>-0.01521495623881902</v>
+        <v>0.0075210077242378</v>
       </c>
       <c r="F74">
-        <v>-0.1165031676261972</v>
+        <v>-0.01581074216005814</v>
       </c>
       <c r="G74">
-        <v>0.05735403432501789</v>
+        <v>0.1515587038577081</v>
       </c>
       <c r="H74">
-        <v>-0.06874717168337297</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>0.05116033820995759</v>
+      </c>
+      <c r="I74">
+        <v>-0.02906274842626182</v>
+      </c>
+      <c r="J74">
+        <v>0.04954997300150922</v>
+      </c>
+      <c r="K74">
+        <v>-0.006241511041854634</v>
+      </c>
+      <c r="L74">
+        <v>0.008683473389667165</v>
+      </c>
+      <c r="M74">
+        <v>0.0007897181969376915</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>0.08910574257805109</v>
+        <v>0.09602542495147762</v>
       </c>
       <c r="C75">
-        <v>-0.01831749485460536</v>
+        <v>0.05109754195245223</v>
       </c>
       <c r="D75">
-        <v>-0.007634442983943394</v>
+        <v>0.008482489517672664</v>
       </c>
       <c r="E75">
-        <v>-0.04452131218942676</v>
+        <v>0.007801131594205698</v>
       </c>
       <c r="F75">
-        <v>-0.1041495360642654</v>
+        <v>-0.01865882114518276</v>
       </c>
       <c r="G75">
-        <v>0.060598011240524</v>
+        <v>0.07588892943255145</v>
       </c>
       <c r="H75">
-        <v>-0.01468114446819228</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>0.1124824571603551</v>
+      </c>
+      <c r="I75">
+        <v>-0.01761720319189409</v>
+      </c>
+      <c r="J75">
+        <v>0.04974673021732139</v>
+      </c>
+      <c r="K75">
+        <v>-0.0009828109234358883</v>
+      </c>
+      <c r="L75">
+        <v>-0.02405816566010773</v>
+      </c>
+      <c r="M75">
+        <v>-0.0691923127649199</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B76">
-        <v>0.1291135183051499</v>
+        <v>0.07847501884842997</v>
       </c>
       <c r="C76">
-        <v>-0.02680620778196853</v>
+        <v>0.05839625736456352</v>
       </c>
       <c r="D76">
-        <v>-0.02140198254704895</v>
+        <v>0.002541929833476609</v>
       </c>
       <c r="E76">
-        <v>-0.02104549226917678</v>
+        <v>-0.01064511124556873</v>
       </c>
       <c r="F76">
-        <v>-0.221834155287763</v>
+        <v>-0.05179028687278366</v>
       </c>
       <c r="G76">
-        <v>0.09642382136981319</v>
+        <v>0.1265401769828151</v>
       </c>
       <c r="H76">
-        <v>-0.07624986286678682</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>0.1650010931029297</v>
+      </c>
+      <c r="I76">
+        <v>-0.05046031761257401</v>
+      </c>
+      <c r="J76">
+        <v>0.0324147039641858</v>
+      </c>
+      <c r="K76">
+        <v>-0.02469810323330423</v>
+      </c>
+      <c r="L76">
+        <v>-0.009218707419403392</v>
+      </c>
+      <c r="M76">
+        <v>0.02488035636502275</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B77">
-        <v>0.07005657194849675</v>
+        <v>0.06880308571577293</v>
       </c>
       <c r="C77">
-        <v>-0.02163543586509546</v>
+        <v>0.02444150328168854</v>
       </c>
       <c r="D77">
-        <v>-0.02507012404788883</v>
+        <v>0.023573844611843</v>
       </c>
       <c r="E77">
-        <v>0.1332635339134934</v>
+        <v>-0.056775072592015</v>
       </c>
       <c r="F77">
-        <v>0.06246047818009239</v>
+        <v>0.2399193171316731</v>
       </c>
       <c r="G77">
-        <v>-0.6800602855630373</v>
+        <v>-0.106122602038405</v>
       </c>
       <c r="H77">
-        <v>0.03695237139585383</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>-0.167645101084014</v>
+      </c>
+      <c r="I77">
+        <v>0.2585128664942364</v>
+      </c>
+      <c r="J77">
+        <v>0.001009783118450281</v>
+      </c>
+      <c r="K77">
+        <v>0.3423980740345177</v>
+      </c>
+      <c r="L77">
+        <v>-0.6269602523671929</v>
+      </c>
+      <c r="M77">
+        <v>0.03735696668150629</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B78">
-        <v>0.1534251118409004</v>
+        <v>0.152629851535741</v>
       </c>
       <c r="C78">
-        <v>-0.08752239771841779</v>
+        <v>0.1189792672428663</v>
       </c>
       <c r="D78">
-        <v>-0.03123090736291335</v>
+        <v>-0.1940789250242749</v>
       </c>
       <c r="E78">
-        <v>0.2002741943879486</v>
+        <v>-0.08360737183876556</v>
       </c>
       <c r="F78">
-        <v>-0.002619679731084873</v>
+        <v>0.07417723305264995</v>
       </c>
       <c r="G78">
-        <v>-0.05212542018660175</v>
+        <v>-0.5594075043822958</v>
       </c>
       <c r="H78">
-        <v>0.0582359729540432</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>0.5717412315942402</v>
+      </c>
+      <c r="I78">
+        <v>0.0156769325059194</v>
+      </c>
+      <c r="J78">
+        <v>-0.08206205027629307</v>
+      </c>
+      <c r="K78">
+        <v>0.3242567174926073</v>
+      </c>
+      <c r="L78">
+        <v>0.1060639722399921</v>
+      </c>
+      <c r="M78">
+        <v>0.1962377348950436</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B79">
-        <v>0.1368778270946524</v>
+        <v>0.1348027697052787</v>
       </c>
       <c r="C79">
-        <v>-0.04272943162885168</v>
+        <v>0.07587020828133281</v>
       </c>
       <c r="D79">
-        <v>-0.01232432734283082</v>
+        <v>0.00314632831756945</v>
       </c>
       <c r="E79">
-        <v>-0.05802224871308713</v>
+        <v>-0.005092889418784959</v>
       </c>
       <c r="F79">
-        <v>-0.1547446391028036</v>
+        <v>0.009310893926751733</v>
       </c>
       <c r="G79">
-        <v>0.04966399582688522</v>
+        <v>0.1348165987995282</v>
       </c>
       <c r="H79">
-        <v>-0.01133657805091182</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>0.1102545868701473</v>
+      </c>
+      <c r="I79">
+        <v>-0.04939453518848204</v>
+      </c>
+      <c r="J79">
+        <v>0.09135901599097182</v>
+      </c>
+      <c r="K79">
+        <v>-0.01993052524768708</v>
+      </c>
+      <c r="L79">
+        <v>-0.03672210079629418</v>
+      </c>
+      <c r="M79">
+        <v>-0.04885514112388892</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B80">
-        <v>0.0298936902223072</v>
+        <v>0.0570895823407878</v>
       </c>
       <c r="C80">
-        <v>-0.008951521239300429</v>
+        <v>0.02559372073539891</v>
       </c>
       <c r="D80">
-        <v>-0.009602981305481288</v>
+        <v>0.07322390106689078</v>
       </c>
       <c r="E80">
-        <v>-0.04046671544092784</v>
+        <v>-0.01638953270190987</v>
       </c>
       <c r="F80">
-        <v>-0.001112023723135803</v>
+        <v>0.04387950924820255</v>
       </c>
       <c r="G80">
-        <v>-0.01347568188792753</v>
+        <v>-0.02883796163382831</v>
       </c>
       <c r="H80">
-        <v>-0.08467954375940451</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>0.01333917916826611</v>
+      </c>
+      <c r="I80">
+        <v>0.0368636992316438</v>
+      </c>
+      <c r="J80">
+        <v>-0.0428832390582751</v>
+      </c>
+      <c r="K80">
+        <v>-0.1353230932319857</v>
+      </c>
+      <c r="L80">
+        <v>0.1374182234480867</v>
+      </c>
+      <c r="M80">
+        <v>0.02235203054466057</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B81">
-        <v>0.1021148203581675</v>
+        <v>0.1214489075117324</v>
       </c>
       <c r="C81">
-        <v>-0.033709228281659</v>
+        <v>0.0677915313974667</v>
       </c>
       <c r="D81">
-        <v>-0.02053859933543845</v>
+        <v>0.000388501630435976</v>
       </c>
       <c r="E81">
-        <v>-0.06055313847177097</v>
+        <v>0.0001760388182261652</v>
       </c>
       <c r="F81">
-        <v>-0.1271844040992004</v>
+        <v>0.02283072365503513</v>
       </c>
       <c r="G81">
-        <v>0.03492929733900557</v>
+        <v>0.09456543253362019</v>
       </c>
       <c r="H81">
-        <v>-0.001369266346859917</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>0.09846644099242674</v>
+      </c>
+      <c r="I81">
+        <v>-0.05450306908016289</v>
+      </c>
+      <c r="J81">
+        <v>0.06230218506854505</v>
+      </c>
+      <c r="K81">
+        <v>-0.009219733609927044</v>
+      </c>
+      <c r="L81">
+        <v>-0.02978729378655194</v>
+      </c>
+      <c r="M81">
+        <v>-0.1069614771825939</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B82">
-        <v>0.1099707747869117</v>
+        <v>0.12414730700568</v>
       </c>
       <c r="C82">
-        <v>-0.02945297508408563</v>
+        <v>0.05125060510863659</v>
       </c>
       <c r="D82">
-        <v>-0.06917095090825352</v>
+        <v>0.02678621015217362</v>
       </c>
       <c r="E82">
-        <v>-0.07668894221408512</v>
+        <v>-0.004012131039433896</v>
       </c>
       <c r="F82">
-        <v>-0.232459821043648</v>
+        <v>0.0006874812568064655</v>
       </c>
       <c r="G82">
-        <v>0.06492990578825239</v>
+        <v>0.1952523795044054</v>
       </c>
       <c r="H82">
-        <v>-0.01244848758996482</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>0.1410224260403916</v>
+      </c>
+      <c r="I82">
+        <v>-0.1260766650890167</v>
+      </c>
+      <c r="J82">
+        <v>0.01576445416300519</v>
+      </c>
+      <c r="K82">
+        <v>-0.06548814969903177</v>
+      </c>
+      <c r="L82">
+        <v>-0.04963296737063083</v>
+      </c>
+      <c r="M82">
+        <v>-0.05936706879753466</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B83">
-        <v>0.0777043629715336</v>
+        <v>0.07391021897605332</v>
       </c>
       <c r="C83">
-        <v>-0.06698356741615072</v>
+        <v>0.07592092082918776</v>
       </c>
       <c r="D83">
-        <v>-0.04565110411815011</v>
+        <v>0.03407690015081634</v>
       </c>
       <c r="E83">
-        <v>-0.004602085989028611</v>
+        <v>-0.01670894303944029</v>
       </c>
       <c r="F83">
-        <v>0.04473420428923189</v>
+        <v>0.05232972550400306</v>
       </c>
       <c r="G83">
-        <v>-0.03283621737775416</v>
+        <v>0.055415955778882</v>
       </c>
       <c r="H83">
-        <v>0.05238316097007705</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>-0.02176236147024281</v>
+      </c>
+      <c r="I83">
+        <v>0.04827275118336901</v>
+      </c>
+      <c r="J83">
+        <v>-0.1387085736882499</v>
+      </c>
+      <c r="K83">
+        <v>-0.0992635806098788</v>
+      </c>
+      <c r="L83">
+        <v>-0.0209937055818288</v>
+      </c>
+      <c r="M83">
+        <v>0.08447709099204941</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B84">
-        <v>0.05451260383093494</v>
+        <v>0.05539770120042901</v>
       </c>
       <c r="C84">
-        <v>-0.04895030578445391</v>
+        <v>-0.01558562996133291</v>
       </c>
       <c r="D84">
-        <v>0.05571634555822661</v>
+        <v>-0.0003685280571696392</v>
       </c>
       <c r="E84">
-        <v>0.01599557611394258</v>
+        <v>0.0264023468406678</v>
       </c>
       <c r="F84">
-        <v>-0.03176967466486152</v>
+        <v>0.01423251872885504</v>
       </c>
       <c r="G84">
-        <v>0.155313680693612</v>
+        <v>-0.1725165136503083</v>
       </c>
       <c r="H84">
-        <v>0.01824272945378106</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>-0.0950122050642903</v>
+      </c>
+      <c r="I84">
+        <v>-0.256226356606492</v>
+      </c>
+      <c r="J84">
+        <v>-0.02573424864617183</v>
+      </c>
+      <c r="K84">
+        <v>-0.1024590482329093</v>
+      </c>
+      <c r="L84">
+        <v>0.1705254147596507</v>
+      </c>
+      <c r="M84">
+        <v>0.3285636223936523</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B85">
-        <v>0.08961610430283172</v>
+        <v>0.1108205874472782</v>
       </c>
       <c r="C85">
-        <v>-0.03776156031214005</v>
+        <v>0.05158385444365953</v>
       </c>
       <c r="D85">
-        <v>-0.0473620288888598</v>
+        <v>0.01309978183058346</v>
       </c>
       <c r="E85">
-        <v>-0.04018002828192029</v>
+        <v>-0.03521485630978784</v>
       </c>
       <c r="F85">
-        <v>-0.1771525325896734</v>
+        <v>0.01016151154551611</v>
       </c>
       <c r="G85">
-        <v>0.01630449969723969</v>
+        <v>0.1410406758804391</v>
       </c>
       <c r="H85">
-        <v>-0.05874720771601055</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>0.1136407645978072</v>
+      </c>
+      <c r="I85">
+        <v>-0.04687356581338577</v>
+      </c>
+      <c r="J85">
+        <v>0.1054777310437482</v>
+      </c>
+      <c r="K85">
+        <v>-0.005713142288708438</v>
+      </c>
+      <c r="L85">
+        <v>-0.04369699270916295</v>
+      </c>
+      <c r="M85">
+        <v>-0.06206125467701062</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B86">
-        <v>0.0428387735796973</v>
+        <v>0.07507220332444202</v>
       </c>
       <c r="C86">
-        <v>-0.04102581877362761</v>
+        <v>0.03101366592730676</v>
       </c>
       <c r="D86">
-        <v>-0.02976171534289814</v>
+        <v>-0.01925122049673928</v>
       </c>
       <c r="E86">
-        <v>0.03079635175243615</v>
+        <v>-0.1212088607528592</v>
       </c>
       <c r="F86">
-        <v>0.007865059561207638</v>
+        <v>0.01723778372195124</v>
       </c>
       <c r="G86">
-        <v>-0.06151327068652023</v>
+        <v>-0.347820366026283</v>
       </c>
       <c r="H86">
-        <v>-0.1260471221150715</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>-0.226169641396322</v>
+      </c>
+      <c r="I86">
+        <v>-0.5208480878570433</v>
+      </c>
+      <c r="J86">
+        <v>0.5198388282329648</v>
+      </c>
+      <c r="K86">
+        <v>-0.1908302185478532</v>
+      </c>
+      <c r="L86">
+        <v>-0.1162423984726493</v>
+      </c>
+      <c r="M86">
+        <v>0.09848327655869007</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B87">
-        <v>0.08814332083766385</v>
+        <v>0.1094100141895923</v>
       </c>
       <c r="C87">
-        <v>-0.05957442927705565</v>
+        <v>0.07515733565529882</v>
       </c>
       <c r="D87">
-        <v>-0.0003421702264235643</v>
+        <v>-0.02802634557198857</v>
       </c>
       <c r="E87">
-        <v>0.06292632438676192</v>
+        <v>-0.03407678323302443</v>
       </c>
       <c r="F87">
-        <v>0.001372531987715106</v>
+        <v>0.09908634275860678</v>
       </c>
       <c r="G87">
-        <v>-0.1287672643654169</v>
+        <v>-0.06033444534588139</v>
       </c>
       <c r="H87">
-        <v>0.04619334383562075</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>-0.09991242569127472</v>
+      </c>
+      <c r="I87">
+        <v>0.06223909105379159</v>
+      </c>
+      <c r="J87">
+        <v>-0.03021686184055324</v>
+      </c>
+      <c r="K87">
+        <v>0.001266893671117694</v>
+      </c>
+      <c r="L87">
+        <v>-0.178334443728928</v>
+      </c>
+      <c r="M87">
+        <v>-0.09593384036652709</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B88">
-        <v>0.05565652926587374</v>
+        <v>0.05814898873170987</v>
       </c>
       <c r="C88">
-        <v>-0.04576307418620499</v>
+        <v>0.05490764070224792</v>
       </c>
       <c r="D88">
-        <v>-0.02333299587815366</v>
+        <v>0.03122443078870226</v>
       </c>
       <c r="E88">
-        <v>0.006082417669189323</v>
+        <v>-0.00408431605107216</v>
       </c>
       <c r="F88">
-        <v>0.009536565632298447</v>
+        <v>0.04449120690005758</v>
       </c>
       <c r="G88">
-        <v>-0.03475946451488644</v>
+        <v>0.03135515066396912</v>
       </c>
       <c r="H88">
-        <v>0.02554701949915327</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>-0.02180106822079615</v>
+      </c>
+      <c r="I88">
+        <v>-0.006941251075200688</v>
+      </c>
+      <c r="J88">
+        <v>-0.03890636847827839</v>
+      </c>
+      <c r="K88">
+        <v>-0.02076815254854615</v>
+      </c>
+      <c r="L88">
+        <v>0.05586351749858864</v>
+      </c>
+      <c r="M88">
+        <v>-0.05753490005066868</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B89">
-        <v>0.1574103417840553</v>
+        <v>0.2085870876622684</v>
       </c>
       <c r="C89">
-        <v>0.3373439713897359</v>
+        <v>-0.361558513345508</v>
       </c>
       <c r="D89">
-        <v>-0.08003585391468905</v>
+        <v>-0.04744551407555327</v>
       </c>
       <c r="E89">
-        <v>0.09288671610810754</v>
+        <v>-0.07502700095079828</v>
       </c>
       <c r="F89">
-        <v>0.05604041729500887</v>
+        <v>0.01215652162153925</v>
       </c>
       <c r="G89">
-        <v>-0.0359021290368824</v>
+        <v>-0.03456458614863579</v>
       </c>
       <c r="H89">
-        <v>-0.0002087712965040774</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>-0.01428449508141892</v>
+      </c>
+      <c r="I89">
+        <v>-0.01828160172609995</v>
+      </c>
+      <c r="J89">
+        <v>-0.08140488320919474</v>
+      </c>
+      <c r="K89">
+        <v>4.044721189831214e-05</v>
+      </c>
+      <c r="L89">
+        <v>0.02277739442537948</v>
+      </c>
+      <c r="M89">
+        <v>-0.06781074642622244</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B90">
-        <v>0.1220083757129175</v>
+        <v>0.1528342918137259</v>
       </c>
       <c r="C90">
-        <v>0.2754812090971404</v>
+        <v>-0.2685099601286066</v>
       </c>
       <c r="D90">
-        <v>-0.02958162230426005</v>
+        <v>0.008602086382675005</v>
       </c>
       <c r="E90">
-        <v>0.06275440669420611</v>
+        <v>-0.01009673852484614</v>
       </c>
       <c r="F90">
-        <v>0.02915357609123995</v>
+        <v>0.03809784285151349</v>
       </c>
       <c r="G90">
-        <v>-0.1069888620792401</v>
+        <v>0.007205968277729969</v>
       </c>
       <c r="H90">
-        <v>0.01342824276879369</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>-0.07083711652928774</v>
+      </c>
+      <c r="I90">
+        <v>0.003079990517732493</v>
+      </c>
+      <c r="J90">
+        <v>-0.01022870234792493</v>
+      </c>
+      <c r="K90">
+        <v>0.03651013569622743</v>
+      </c>
+      <c r="L90">
+        <v>0.02296624433941398</v>
+      </c>
+      <c r="M90">
+        <v>0.05483817896737602</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B91">
-        <v>0.07916747873011762</v>
+        <v>0.08021395814941344</v>
       </c>
       <c r="C91">
-        <v>-0.02081123518693955</v>
+        <v>0.05341719144477482</v>
       </c>
       <c r="D91">
-        <v>-0.01357988196867311</v>
+        <v>-0.0027893116680397</v>
       </c>
       <c r="E91">
-        <v>0.007698132372024939</v>
+        <v>-0.01131683745789689</v>
       </c>
       <c r="F91">
-        <v>-0.09464555806298496</v>
+        <v>-0.003963564035861188</v>
       </c>
       <c r="G91">
-        <v>0.07284856299529789</v>
+        <v>0.08000972028068536</v>
       </c>
       <c r="H91">
-        <v>-0.01414129104079955</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>0.06961491187049183</v>
+      </c>
+      <c r="I91">
+        <v>-0.04039610579993969</v>
+      </c>
+      <c r="J91">
+        <v>0.03214636508534053</v>
+      </c>
+      <c r="K91">
+        <v>0.0007710966132678077</v>
+      </c>
+      <c r="L91">
+        <v>0.009172458705071359</v>
+      </c>
+      <c r="M91">
+        <v>0.003632025460322279</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B92">
-        <v>0.1293001224436955</v>
+        <v>0.1718145822650797</v>
       </c>
       <c r="C92">
-        <v>0.313952880762357</v>
+        <v>-0.3136777649707886</v>
       </c>
       <c r="D92">
-        <v>-0.0652704013081209</v>
+        <v>-0.03514324124041284</v>
       </c>
       <c r="E92">
-        <v>0.05062119969200084</v>
+        <v>-0.0466855129172681</v>
       </c>
       <c r="F92">
-        <v>0.04125140246113326</v>
+        <v>0.04100622742653725</v>
       </c>
       <c r="G92">
-        <v>0.0988592824571623</v>
+        <v>0.009839512810131871</v>
       </c>
       <c r="H92">
-        <v>0.008270719303036351</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>0.03316096315021778</v>
+      </c>
+      <c r="I92">
+        <v>-0.02227962031067224</v>
+      </c>
+      <c r="J92">
+        <v>-0.04707558016218989</v>
+      </c>
+      <c r="K92">
+        <v>-0.008834182302008251</v>
+      </c>
+      <c r="L92">
+        <v>0.05075369848533978</v>
+      </c>
+      <c r="M92">
+        <v>-0.06973645474328176</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>0.1285662220169857</v>
+        <v>0.1635824203039321</v>
       </c>
       <c r="C93">
-        <v>0.2620337129294146</v>
+        <v>-0.286471538201389</v>
       </c>
       <c r="D93">
-        <v>-0.0410762282190792</v>
+        <v>0.03100958577626153</v>
       </c>
       <c r="E93">
-        <v>0.02277350199092704</v>
+        <v>-0.008433261316833307</v>
       </c>
       <c r="F93">
-        <v>0.03432334756643379</v>
+        <v>0.01480207261345727</v>
       </c>
       <c r="G93">
-        <v>-0.02218745218900315</v>
+        <v>-0.001804085228523809</v>
       </c>
       <c r="H93">
-        <v>0.007726608199220382</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>-0.04260618815521688</v>
+      </c>
+      <c r="I93">
+        <v>-0.001215472421133132</v>
+      </c>
+      <c r="J93">
+        <v>0.01107017364481506</v>
+      </c>
+      <c r="K93">
+        <v>-0.03387872700169806</v>
+      </c>
+      <c r="L93">
+        <v>0.003483310325532949</v>
+      </c>
+      <c r="M93">
+        <v>0.0211096297229984</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B94">
-        <v>0.09124992931497633</v>
+        <v>0.1132480766498067</v>
       </c>
       <c r="C94">
-        <v>-0.05581505054765654</v>
+        <v>0.07100427849997261</v>
       </c>
       <c r="D94">
-        <v>-0.01081116705493025</v>
+        <v>-0.01544461440075469</v>
       </c>
       <c r="E94">
-        <v>-0.005102901566902526</v>
+        <v>-0.01992988241988321</v>
       </c>
       <c r="F94">
-        <v>-0.1507574899487933</v>
+        <v>-0.01936274151053773</v>
       </c>
       <c r="G94">
-        <v>0.09881552821919773</v>
+        <v>0.1152286076684983</v>
       </c>
       <c r="H94">
-        <v>-0.05542455118210269</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>0.1022193980642587</v>
+      </c>
+      <c r="I94">
+        <v>-0.0274885639832042</v>
+      </c>
+      <c r="J94">
+        <v>0.03877694574945017</v>
+      </c>
+      <c r="K94">
+        <v>0.002882593522672212</v>
+      </c>
+      <c r="L94">
+        <v>0.04043630955959688</v>
+      </c>
+      <c r="M94">
+        <v>-0.01657246107554355</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B95">
-        <v>0.1048817057165927</v>
+        <v>0.1136879807257317</v>
       </c>
       <c r="C95">
-        <v>-0.0701939690212251</v>
+        <v>0.07301431691306445</v>
       </c>
       <c r="D95">
-        <v>-0.06163656662505676</v>
+        <v>-0.02378168185412563</v>
       </c>
       <c r="E95">
-        <v>0.04756574026277071</v>
+        <v>-0.06316222177813349</v>
       </c>
       <c r="F95">
-        <v>0.06036530246738818</v>
+        <v>0.0462880899282526</v>
       </c>
       <c r="G95">
-        <v>-0.04311247921189175</v>
+        <v>-0.2249897627942025</v>
       </c>
       <c r="H95">
-        <v>0.002236994964497535</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>-0.1566690228096769</v>
+      </c>
+      <c r="I95">
+        <v>-0.0165741272911198</v>
+      </c>
+      <c r="J95">
+        <v>0.0296391220440501</v>
+      </c>
+      <c r="K95">
+        <v>-0.009475450836228839</v>
+      </c>
+      <c r="L95">
+        <v>0.03804292568290141</v>
+      </c>
+      <c r="M95">
+        <v>-0.57034412674636</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.000271308608925616</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.0009865438740772948</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.0001600271426264111</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.002621952980763104</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.0004487792116762418</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>-0.004076936667591236</v>
       </c>
       <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>0.005548621979467483</v>
+      </c>
+      <c r="I96">
+        <v>0.001789202504405766</v>
+      </c>
+      <c r="J96">
+        <v>-0.0006831606211725832</v>
+      </c>
+      <c r="K96">
+        <v>0.002024272678384191</v>
+      </c>
+      <c r="L96">
+        <v>0.002715057679790682</v>
+      </c>
+      <c r="M96">
+        <v>0.006618994643452123</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B97">
-        <v>0.2399987150950508</v>
+        <v>0.156306477115167</v>
       </c>
       <c r="C97">
-        <v>0.06845046789804701</v>
+        <v>0.01523278642733972</v>
       </c>
       <c r="D97">
-        <v>0.8960896211137149</v>
+        <v>-0.09707184202778259</v>
       </c>
       <c r="E97">
-        <v>-0.08585307102224407</v>
+        <v>0.9302821149898021</v>
       </c>
       <c r="F97">
-        <v>0.09429841536241018</v>
+        <v>0.03170456015224221</v>
       </c>
       <c r="G97">
-        <v>-0.02643486623614989</v>
+        <v>-0.106666430170686</v>
       </c>
       <c r="H97">
-        <v>0.01776118439593891</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>-0.06185110691946354</v>
+      </c>
+      <c r="I97">
+        <v>-0.07224606278209234</v>
+      </c>
+      <c r="J97">
+        <v>-0.007318707544288048</v>
+      </c>
+      <c r="K97">
+        <v>0.0131762530312883</v>
+      </c>
+      <c r="L97">
+        <v>-0.0362974313185969</v>
+      </c>
+      <c r="M97">
+        <v>-0.004032053362102267</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B98">
-        <v>0.2976924071717135</v>
+        <v>0.2536798225961312</v>
       </c>
       <c r="C98">
-        <v>-0.1164604331434469</v>
+        <v>0.1088928833165935</v>
       </c>
       <c r="D98">
-        <v>-0.1195798824210587</v>
+        <v>-0.01199361865244452</v>
       </c>
       <c r="E98">
-        <v>-0.2535391534754513</v>
+        <v>-0.003585288620810389</v>
       </c>
       <c r="F98">
-        <v>0.4534129225903492</v>
+        <v>-0.4683982333367988</v>
       </c>
       <c r="G98">
-        <v>0.3383241437886416</v>
+        <v>-0.223753203759745</v>
       </c>
       <c r="H98">
-        <v>0.4411556985003305</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>0.05292640200128847</v>
+      </c>
+      <c r="I98">
+        <v>0.06961796206312047</v>
+      </c>
+      <c r="J98">
+        <v>-0.438482671035308</v>
+      </c>
+      <c r="K98">
+        <v>-0.3779910314707781</v>
+      </c>
+      <c r="L98">
+        <v>-0.224132170737849</v>
+      </c>
+      <c r="M98">
+        <v>-0.02369845198512494</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B99">
-        <v>0.06360567090007084</v>
+        <v>0.06620583158870498</v>
       </c>
       <c r="C99">
-        <v>-0.05324716948648462</v>
+        <v>0.05514307482156779</v>
       </c>
       <c r="D99">
-        <v>-0.02963274390736598</v>
+        <v>-0.00444003321128842</v>
       </c>
       <c r="E99">
-        <v>-0.01703867471824949</v>
+        <v>-0.03130544417676517</v>
       </c>
       <c r="F99">
-        <v>0.01769298147873851</v>
+        <v>-0.01695631362472301</v>
       </c>
       <c r="G99">
-        <v>-0.01210325486070664</v>
+        <v>0.009674994653860673</v>
       </c>
       <c r="H99">
-        <v>0.08611017725666326</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>0.02465475349008039</v>
+      </c>
+      <c r="I99">
+        <v>-0.01641444856531261</v>
+      </c>
+      <c r="J99">
+        <v>-0.03499649128850342</v>
+      </c>
+      <c r="K99">
+        <v>0.0387183489124552</v>
+      </c>
+      <c r="L99">
+        <v>-0.05328847668452115</v>
+      </c>
+      <c r="M99">
+        <v>-0.04887629792624722</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>0.002174490138715221</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>-0.003908409948312822</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.002183306195341514</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>-0.008399483902230496</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.006031405711107048</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>0.007855903151631516</v>
       </c>
       <c r="H100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>0.0006272610560996307</v>
+      </c>
+      <c r="I100">
+        <v>0.005847378968073911</v>
+      </c>
+      <c r="J100">
+        <v>-0.007914615184480724</v>
+      </c>
+      <c r="K100">
+        <v>-0.0139170603853938</v>
+      </c>
+      <c r="L100">
+        <v>-0.005178776973583691</v>
+      </c>
+      <c r="M100">
+        <v>0.009222007149397426</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B101">
-        <v>0.05178227060040051</v>
+        <v>0.04062687960210412</v>
       </c>
       <c r="C101">
-        <v>-0.02268243278518296</v>
+        <v>0.02867526617598241</v>
       </c>
       <c r="D101">
-        <v>-0.01520279818433928</v>
+        <v>0.005318809101565467</v>
       </c>
       <c r="E101">
-        <v>0.02689778066708972</v>
+        <v>-0.02642902893041324</v>
       </c>
       <c r="F101">
-        <v>-0.001983331349568858</v>
+        <v>0.05980878612627798</v>
       </c>
       <c r="G101">
-        <v>0.01194391752650829</v>
+        <v>0.01133864280229654</v>
       </c>
       <c r="H101">
-        <v>-0.007538350392746968</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>0.01410018876322376</v>
+      </c>
+      <c r="I101">
+        <v>0.005333527776785495</v>
+      </c>
+      <c r="J101">
+        <v>-0.008173202952715116</v>
+      </c>
+      <c r="K101">
+        <v>-0.08687331345840839</v>
+      </c>
+      <c r="L101">
+        <v>0.01699070371174217</v>
+      </c>
+      <c r="M101">
+        <v>-0.01404517404084583</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +4885,25 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +4926,25 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4965,21 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
         <v>0</v>
       </c>
     </row>
